--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.1.EEE_refrigeradora_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.1.EEE_refrigeradora_exp.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A1A6D-3D30-4BE5-B654-352D1B682FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="2715" yWindow="2400" windowWidth="14400" windowHeight="11625" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="EEE Refrigeradoras" sheetId="8" r:id="rId3"/>
-    <sheet name="Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores" sheetId="5" r:id="rId5"/>
+    <sheet name="Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Factores" sheetId="5" r:id="rId4"/>
+    <sheet name="EEE Refrigeradoras" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -35,22 +36,28 @@
     <definedName name="Lista_meses">Variables!$S$87:$S$98</definedName>
     <definedName name="Tabla_mes">Variables!$S$87:$T$98</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H181" authorId="0" shapeId="0">
+    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E221" authorId="0" shapeId="0">
+    <comment ref="E221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +114,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2449,16 +2456,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -3734,12 +3743,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3865,21 +3874,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3887,8 +3896,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3897,10 +3906,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4000,12 +4009,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4022,7 +4031,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4048,9 +4057,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4073,7 +4082,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4163,7 +4172,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4175,61 +4184,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4237,20 +4246,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4283,7 +4292,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4296,10 +4305,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4318,11 +4327,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4574,7 +4583,7 @@
     <xf numFmtId="3" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4652,6 +4661,57 @@
     <xf numFmtId="0" fontId="43" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4670,21 +4730,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4694,54 +4739,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4766,7 +4782,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4780,7 +4796,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4806,7 +4821,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4857,7 +4872,7 @@
                 <c:pt idx="6">
                   <c:v>502.89359999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.0000">
                   <c:v>203.7706</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -4869,7 +4884,7 @@
                 <c:pt idx="10">
                   <c:v>379.7543</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0.0000">
                   <c:v>435.32810000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
@@ -4923,6 +4938,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE01-492E-B36B-DDE746BF4D67}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4978,7 +4998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308700544"/>
@@ -5037,7 +5057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165873808"/>
@@ -5078,7 +5098,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5090,7 +5110,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5104,7 +5124,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5130,7 +5149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5247,6 +5266,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B4D-40F2-B62B-EF1F5D688582}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5302,7 +5326,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308699984"/>
@@ -5361,7 +5385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308701104"/>
@@ -5402,7 +5426,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5414,7 +5438,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5453,7 +5477,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5570,6 +5594,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3089-4588-8B38-139B766105E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5625,7 +5654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296967792"/>
@@ -5684,7 +5713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296969472"/>
@@ -5725,7 +5754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5737,7 +5766,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5776,7 +5805,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5893,6 +5922,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECB2-4CEF-A111-2347F47D58BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5948,7 +5982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302060240"/>
@@ -6007,7 +6041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302060800"/>
@@ -6048,7 +6082,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6060,7 +6094,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6099,7 +6133,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6216,6 +6250,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E63A-41C0-A53A-689FBDB594B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6271,7 +6310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="260999936"/>
@@ -6330,7 +6369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299423872"/>
@@ -6371,7 +6410,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6383,7 +6422,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6422,7 +6461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6539,6 +6578,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3582-43BD-B976-8F125DA7240B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6594,7 +6638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="163815968"/>
@@ -6653,7 +6697,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="163816528"/>
@@ -6694,7 +6738,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6706,7 +6750,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6745,7 +6789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6862,6 +6906,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E434-4C57-B6F8-CC6E0089593A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6917,7 +6966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300003072"/>
@@ -6976,7 +7025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300002512"/>
@@ -7017,7 +7066,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10841,7 +10890,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10940,7 +10995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11030,7 +11091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11095,7 +11162,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11125,7 +11198,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11157,7 +11236,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11189,7 +11274,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11221,7 +11312,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11253,7 +11350,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11285,7 +11388,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11320,15 +11429,15 @@
       <sheetName val="Resumen"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1">
         <row r="4">
           <cell r="D4">
             <v>184.39431999999999</v>
@@ -12764,7 +12873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13065,7 +13174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13394,365 +13503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="320" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="320"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="322" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="320"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="320"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="323" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="369" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="328" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="328" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="328" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="329" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="328" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="330" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="331"/>
-      <c r="I5" s="332" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="369"/>
-    </row>
-    <row r="6" spans="2:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="B6" s="333" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="334"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="336" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="337">
-        <v>2010</v>
-      </c>
-      <c r="C7" s="337">
-        <v>120</v>
-      </c>
-      <c r="D7" s="337" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="337" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="338">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="80">
-        <f t="shared" ref="H7:H12" si="0">VLOOKUP(I7,Tabla_mes,2,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="338" t="s">
-        <v>255</v>
-      </c>
-      <c r="J7" s="339">
-        <f>(Variables!G15-Variables!G12)/(1-Factores!$C$4)*1/1000*Factores!$Q$4*G7*H7/12</f>
-        <v>1992.8421746651782</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="337">
-        <v>2010</v>
-      </c>
-      <c r="C8" s="337">
-        <v>120</v>
-      </c>
-      <c r="D8" s="337" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="337" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="338">
-        <v>25000</v>
-      </c>
-      <c r="H8" s="80">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I8" s="338" t="s">
-        <v>276</v>
-      </c>
-      <c r="J8" s="339">
-        <f>(Variables!G17-Variables!G12)/(1-Factores!$C$4)*1/1000*Factores!$Q$4*G8*H8/12</f>
-        <v>1153.750732700893</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="337">
-        <v>2011</v>
-      </c>
-      <c r="C9" s="337">
-        <v>225</v>
-      </c>
-      <c r="D9" s="337" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="337" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="338">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="80">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I9" s="338" t="s">
-        <v>271</v>
-      </c>
-      <c r="J9" s="339">
-        <f>(Variables!G23-Variables!G19)/(1-Factores!$C$5)*1/1000*Factores!$Q$5*G9*H9/12</f>
-        <v>3349.1361412789624</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="337">
-        <v>2011</v>
-      </c>
-      <c r="C10" s="337">
-        <v>375</v>
-      </c>
-      <c r="D10" s="337" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="337" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="338">
-        <v>25000</v>
-      </c>
-      <c r="H10" s="80">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I10" s="338" t="s">
-        <v>274</v>
-      </c>
-      <c r="J10" s="339">
-        <f>(Variables!G28-Variables!G26)/(1-Factores!$C$5)*1/1000*Factores!$Q$5*G10*H10/12</f>
-        <v>912.98066633968574</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="337">
-        <v>2012</v>
-      </c>
-      <c r="C11" s="337">
-        <v>480</v>
-      </c>
-      <c r="D11" s="337" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="337" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="338">
-        <v>25000</v>
-      </c>
-      <c r="H11" s="80">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="I11" s="338" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="339">
-        <f>(Variables!G36-Variables!G33)/(1-Factores!$C$6)*1/1000*Factores!$Q$6*G11*H11/12</f>
-        <v>3493.9463599794235</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="337">
-        <v>2013</v>
-      </c>
-      <c r="C12" s="337">
-        <v>225</v>
-      </c>
-      <c r="D12" s="337" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="337" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="338">
-        <v>25000</v>
-      </c>
-      <c r="H12" s="80">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="338" t="s">
-        <v>274</v>
-      </c>
-      <c r="J12" s="339">
-        <f>(Variables!Y22-Variables!Y19)/(1-Factores!$C$7)*1/1000*Factores!$Q$7*G12*H12/12</f>
-        <v>1963.7889507166576</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="341"/>
-      <c r="F13" s="342"/>
-      <c r="G13" s="343"/>
-      <c r="H13" s="343"/>
-      <c r="I13" s="343"/>
-      <c r="J13" s="344">
-        <f>SUM(J7:J12)</f>
-        <v>12866.445025680801</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J4:J5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I12">
-      <formula1>Lista_meses</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$B$12:$B$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:D12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$F$12:$F$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>E7:F12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$B$21:$B$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AY305"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R92" sqref="R92"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13917,18 +13672,18 @@
       <c r="D3" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="386" t="s">
+      <c r="E3" s="383" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="383"/>
+      <c r="I3" s="383"/>
+      <c r="J3" s="383"/>
+      <c r="K3" s="383"/>
+      <c r="L3" s="383"/>
+      <c r="M3" s="383"/>
+      <c r="N3" s="383"/>
       <c r="P3" s="306" t="s">
         <v>145</v>
       </c>
@@ -15120,7 +14875,7 @@
       <c r="F19" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="260">
+      <c r="G19" s="400">
         <f>[1]Resumen!$D$5</f>
         <v>203.7706</v>
       </c>
@@ -15599,7 +15354,7 @@
       <c r="F23" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="258">
+      <c r="G23" s="398">
         <f>[1]Resumen!$H$5</f>
         <v>435.32810000000006</v>
       </c>
@@ -17624,20 +17379,20 @@
       </c>
     </row>
     <row r="40" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="387" t="s">
+      <c r="D40" s="384" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="387"/>
-      <c r="F40" s="387"/>
-      <c r="G40" s="387"/>
+      <c r="E40" s="384"/>
+      <c r="F40" s="384"/>
+      <c r="G40" s="384"/>
       <c r="H40" s="222"/>
       <c r="I40" s="222"/>
-      <c r="J40" s="387" t="s">
+      <c r="J40" s="384" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="387"/>
-      <c r="L40" s="387"/>
-      <c r="M40" s="387"/>
+      <c r="K40" s="384"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
       <c r="N40" s="222"/>
       <c r="O40" s="222"/>
       <c r="P40" s="313" t="s">
@@ -17648,13 +17403,13 @@
       <c r="S40" s="225"/>
       <c r="T40" s="224"/>
       <c r="U40" s="224"/>
-      <c r="V40" s="394" t="s">
+      <c r="V40" s="372" t="s">
         <v>171</v>
       </c>
-      <c r="W40" s="394"/>
-      <c r="X40" s="394"/>
-      <c r="Y40" s="394"/>
-      <c r="Z40" s="394"/>
+      <c r="W40" s="372"/>
+      <c r="X40" s="372"/>
+      <c r="Y40" s="372"/>
+      <c r="Z40" s="372"/>
       <c r="AA40" s="224"/>
       <c r="AB40" s="226" t="s">
         <v>174</v>
@@ -17662,19 +17417,19 @@
       <c r="AC40" s="224"/>
       <c r="AD40" s="224"/>
       <c r="AG40" s="224"/>
-      <c r="AH40" s="391" t="s">
+      <c r="AH40" s="373" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="391"/>
-      <c r="AJ40" s="391"/>
-      <c r="AK40" s="391"/>
-      <c r="AN40" s="394" t="s">
+      <c r="AI40" s="373"/>
+      <c r="AJ40" s="373"/>
+      <c r="AK40" s="373"/>
+      <c r="AN40" s="372" t="s">
         <v>177</v>
       </c>
-      <c r="AO40" s="394"/>
-      <c r="AP40" s="394"/>
-      <c r="AQ40" s="394"/>
-      <c r="AR40" s="394"/>
+      <c r="AO40" s="372"/>
+      <c r="AP40" s="372"/>
+      <c r="AQ40" s="372"/>
+      <c r="AR40" s="372"/>
       <c r="AU40" s="224"/>
       <c r="AV40" s="224"/>
       <c r="AW40" s="224"/>
@@ -17682,58 +17437,58 @@
       <c r="AY40" s="224"/>
     </row>
     <row r="41" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="388" t="s">
+      <c r="D41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="388"/>
-      <c r="F41" s="388"/>
-      <c r="G41" s="388"/>
+      <c r="E41" s="371"/>
+      <c r="F41" s="371"/>
+      <c r="G41" s="371"/>
       <c r="H41" s="223"/>
       <c r="I41" s="223"/>
-      <c r="J41" s="388" t="s">
+      <c r="J41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="388"/>
-      <c r="L41" s="388"/>
-      <c r="M41" s="388"/>
+      <c r="K41" s="371"/>
+      <c r="L41" s="371"/>
+      <c r="M41" s="371"/>
       <c r="N41" s="223"/>
       <c r="O41" s="223"/>
-      <c r="P41" s="388" t="s">
+      <c r="P41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="388"/>
-      <c r="R41" s="388"/>
-      <c r="S41" s="388"/>
+      <c r="Q41" s="371"/>
+      <c r="R41" s="371"/>
+      <c r="S41" s="371"/>
       <c r="T41" s="223"/>
       <c r="U41" s="223"/>
-      <c r="V41" s="388" t="s">
+      <c r="V41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="W41" s="388"/>
-      <c r="X41" s="388"/>
-      <c r="Y41" s="388"/>
-      <c r="Z41" s="388"/>
+      <c r="W41" s="371"/>
+      <c r="X41" s="371"/>
+      <c r="Y41" s="371"/>
+      <c r="Z41" s="371"/>
       <c r="AA41" s="223"/>
-      <c r="AB41" s="388" t="s">
+      <c r="AB41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AC41" s="388"/>
-      <c r="AD41" s="388"/>
-      <c r="AE41" s="388"/>
+      <c r="AC41" s="371"/>
+      <c r="AD41" s="371"/>
+      <c r="AE41" s="371"/>
       <c r="AG41" s="223"/>
-      <c r="AH41" s="388" t="s">
+      <c r="AH41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AI41" s="388"/>
-      <c r="AJ41" s="388"/>
-      <c r="AK41" s="388"/>
-      <c r="AN41" s="388" t="s">
+      <c r="AI41" s="371"/>
+      <c r="AJ41" s="371"/>
+      <c r="AK41" s="371"/>
+      <c r="AN41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AO41" s="388"/>
-      <c r="AP41" s="388"/>
-      <c r="AQ41" s="388"/>
-      <c r="AR41" s="388"/>
+      <c r="AO41" s="371"/>
+      <c r="AP41" s="371"/>
+      <c r="AQ41" s="371"/>
+      <c r="AR41" s="371"/>
       <c r="AU41" s="223"/>
       <c r="AV41" s="223"/>
       <c r="AW41" s="223"/>
@@ -17741,46 +17496,46 @@
       <c r="AY41" s="223"/>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="D42" s="388"/>
-      <c r="E42" s="388"/>
-      <c r="F42" s="388"/>
-      <c r="G42" s="388"/>
+      <c r="D42" s="371"/>
+      <c r="E42" s="371"/>
+      <c r="F42" s="371"/>
+      <c r="G42" s="371"/>
       <c r="H42" s="223"/>
       <c r="I42" s="223"/>
-      <c r="J42" s="388"/>
-      <c r="K42" s="388"/>
-      <c r="L42" s="388"/>
-      <c r="M42" s="388"/>
+      <c r="J42" s="371"/>
+      <c r="K42" s="371"/>
+      <c r="L42" s="371"/>
+      <c r="M42" s="371"/>
       <c r="N42" s="223"/>
       <c r="O42" s="223"/>
-      <c r="P42" s="388"/>
-      <c r="Q42" s="388"/>
-      <c r="R42" s="388"/>
-      <c r="S42" s="388"/>
+      <c r="P42" s="371"/>
+      <c r="Q42" s="371"/>
+      <c r="R42" s="371"/>
+      <c r="S42" s="371"/>
       <c r="T42" s="223"/>
       <c r="U42" s="223"/>
-      <c r="V42" s="388"/>
-      <c r="W42" s="388"/>
-      <c r="X42" s="388"/>
-      <c r="Y42" s="388"/>
-      <c r="Z42" s="388"/>
+      <c r="V42" s="371"/>
+      <c r="W42" s="371"/>
+      <c r="X42" s="371"/>
+      <c r="Y42" s="371"/>
+      <c r="Z42" s="371"/>
       <c r="AA42" s="223"/>
-      <c r="AB42" s="388"/>
-      <c r="AC42" s="388"/>
-      <c r="AD42" s="388"/>
-      <c r="AE42" s="388"/>
+      <c r="AB42" s="371"/>
+      <c r="AC42" s="371"/>
+      <c r="AD42" s="371"/>
+      <c r="AE42" s="371"/>
       <c r="AF42" s="223"/>
       <c r="AG42" s="223"/>
-      <c r="AH42" s="388"/>
-      <c r="AI42" s="388"/>
-      <c r="AJ42" s="388"/>
-      <c r="AK42" s="388"/>
+      <c r="AH42" s="371"/>
+      <c r="AI42" s="371"/>
+      <c r="AJ42" s="371"/>
+      <c r="AK42" s="371"/>
       <c r="AM42" s="223"/>
-      <c r="AN42" s="388"/>
-      <c r="AO42" s="388"/>
-      <c r="AP42" s="388"/>
-      <c r="AQ42" s="388"/>
-      <c r="AR42" s="388"/>
+      <c r="AN42" s="371"/>
+      <c r="AO42" s="371"/>
+      <c r="AP42" s="371"/>
+      <c r="AQ42" s="371"/>
+      <c r="AR42" s="371"/>
       <c r="AT42" s="223"/>
       <c r="AU42" s="223"/>
       <c r="AV42" s="223"/>
@@ -19486,44 +19241,44 @@
       </c>
     </row>
     <row r="81" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="370" t="s">
+      <c r="D81" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="370"/>
-      <c r="F81" s="370"/>
-      <c r="G81" s="370"/>
-      <c r="H81" s="370"/>
-      <c r="I81" s="370"/>
-      <c r="J81" s="370"/>
-      <c r="K81" s="370"/>
-      <c r="M81" s="391" t="s">
+      <c r="E81" s="387"/>
+      <c r="F81" s="387"/>
+      <c r="G81" s="387"/>
+      <c r="H81" s="387"/>
+      <c r="I81" s="387"/>
+      <c r="J81" s="387"/>
+      <c r="K81" s="387"/>
+      <c r="M81" s="373" t="s">
         <v>179</v>
       </c>
-      <c r="N81" s="391"/>
-      <c r="O81" s="391"/>
-      <c r="P81" s="391"/>
+      <c r="N81" s="373"/>
+      <c r="O81" s="373"/>
+      <c r="P81" s="373"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D82" s="371"/>
-      <c r="E82" s="371"/>
-      <c r="F82" s="371"/>
-      <c r="G82" s="371"/>
-      <c r="H82" s="371"/>
-      <c r="I82" s="371"/>
-      <c r="J82" s="371"/>
-      <c r="K82" s="371"/>
-      <c r="M82" s="388" t="s">
+      <c r="D82" s="388"/>
+      <c r="E82" s="388"/>
+      <c r="F82" s="388"/>
+      <c r="G82" s="388"/>
+      <c r="H82" s="388"/>
+      <c r="I82" s="388"/>
+      <c r="J82" s="388"/>
+      <c r="K82" s="388"/>
+      <c r="M82" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="N82" s="388"/>
-      <c r="O82" s="388"/>
-      <c r="P82" s="388"/>
+      <c r="N82" s="371"/>
+      <c r="O82" s="371"/>
+      <c r="P82" s="371"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M83" s="388"/>
-      <c r="N83" s="388"/>
-      <c r="O83" s="388"/>
-      <c r="P83" s="388"/>
+      <c r="M83" s="371"/>
+      <c r="N83" s="371"/>
+      <c r="O83" s="371"/>
+      <c r="P83" s="371"/>
     </row>
     <row r="84" spans="2:20" s="179" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="180" t="s">
@@ -19937,11 +19692,11 @@
         <f>[2]CEA!$D$21</f>
         <v>600.4777107007576</v>
       </c>
-      <c r="H94" s="389" t="s">
+      <c r="H94" s="385" t="s">
         <v>239</v>
       </c>
-      <c r="I94" s="389"/>
-      <c r="J94" s="389"/>
+      <c r="I94" s="385"/>
+      <c r="J94" s="385"/>
       <c r="K94" s="298">
         <v>150</v>
       </c>
@@ -19981,9 +19736,9 @@
         <f>[2]CEA!$G$21</f>
         <v>625.34956854043412</v>
       </c>
-      <c r="H95" s="390"/>
-      <c r="I95" s="390"/>
-      <c r="J95" s="390"/>
+      <c r="H95" s="386"/>
+      <c r="I95" s="386"/>
+      <c r="J95" s="386"/>
       <c r="L95" s="75" t="s">
         <v>80</v>
       </c>
@@ -20017,9 +19772,9 @@
         <f>[2]CEA!$J$21</f>
         <v>688.94443991742742</v>
       </c>
-      <c r="H96" s="390"/>
-      <c r="I96" s="390"/>
-      <c r="J96" s="390"/>
+      <c r="H96" s="386"/>
+      <c r="I96" s="386"/>
+      <c r="J96" s="386"/>
       <c r="L96" s="75" t="s">
         <v>82</v>
       </c>
@@ -20173,12 +19928,12 @@
         <v>1801.433132102273</v>
       </c>
       <c r="K101" s="299"/>
-      <c r="L101" s="384" t="s">
+      <c r="L101" s="381" t="s">
         <v>239</v>
       </c>
-      <c r="M101" s="384"/>
-      <c r="N101" s="384"/>
-      <c r="O101" s="384"/>
+      <c r="M101" s="381"/>
+      <c r="N101" s="381"/>
+      <c r="O101" s="381"/>
       <c r="P101" s="319"/>
     </row>
     <row r="102" spans="4:20" x14ac:dyDescent="0.25">
@@ -20194,10 +19949,10 @@
         <v>1945.1057131901846</v>
       </c>
       <c r="K102" s="299"/>
-      <c r="L102" s="385"/>
-      <c r="M102" s="385"/>
-      <c r="N102" s="385"/>
-      <c r="O102" s="385"/>
+      <c r="L102" s="382"/>
+      <c r="M102" s="382"/>
+      <c r="N102" s="382"/>
+      <c r="O102" s="382"/>
       <c r="P102" s="319"/>
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.25">
@@ -20213,10 +19968,10 @@
         <v>2327.8431075624085</v>
       </c>
       <c r="K103" s="299"/>
-      <c r="L103" s="385"/>
-      <c r="M103" s="385"/>
-      <c r="N103" s="385"/>
-      <c r="O103" s="385"/>
+      <c r="L103" s="382"/>
+      <c r="M103" s="382"/>
+      <c r="N103" s="382"/>
+      <c r="O103" s="382"/>
       <c r="P103" s="319"/>
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.25">
@@ -20296,11 +20051,11 @@
       <c r="P107" s="319"/>
     </row>
     <row r="108" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="374" t="s">
+      <c r="D108" s="391" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="374"/>
-      <c r="F108" s="374"/>
+      <c r="E108" s="391"/>
+      <c r="F108" s="391"/>
       <c r="G108" s="268"/>
       <c r="H108" s="228"/>
       <c r="K108" s="299"/>
@@ -20311,9 +20066,9 @@
       <c r="P108" s="319"/>
     </row>
     <row r="109" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D109" s="375"/>
-      <c r="E109" s="375"/>
-      <c r="F109" s="375"/>
+      <c r="D109" s="392"/>
+      <c r="E109" s="392"/>
+      <c r="F109" s="392"/>
       <c r="G109" s="268"/>
       <c r="H109" s="228"/>
       <c r="K109" s="299"/>
@@ -20324,9 +20079,9 @@
       <c r="P109" s="319"/>
     </row>
     <row r="110" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D110" s="375"/>
-      <c r="E110" s="375"/>
-      <c r="F110" s="375"/>
+      <c r="D110" s="392"/>
+      <c r="E110" s="392"/>
+      <c r="F110" s="392"/>
       <c r="K110" s="299"/>
       <c r="L110" s="139"/>
       <c r="M110" s="139"/>
@@ -20842,21 +20597,21 @@
       </c>
     </row>
     <row r="149" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D149" s="370" t="s">
+      <c r="D149" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E149" s="370"/>
-      <c r="F149" s="370"/>
+      <c r="E149" s="387"/>
+      <c r="F149" s="387"/>
     </row>
     <row r="150" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="371"/>
-      <c r="E150" s="371"/>
-      <c r="F150" s="371"/>
+      <c r="D150" s="388"/>
+      <c r="E150" s="388"/>
+      <c r="F150" s="388"/>
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="371"/>
-      <c r="E151" s="371"/>
-      <c r="F151" s="371"/>
+      <c r="D151" s="388"/>
+      <c r="E151" s="388"/>
+      <c r="F151" s="388"/>
     </row>
     <row r="153" spans="4:16" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="180" t="s">
@@ -20876,11 +20631,11 @@
       <c r="F154" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H154" s="381" t="s">
+      <c r="H154" s="393" t="s">
         <v>251</v>
       </c>
-      <c r="I154" s="382"/>
-      <c r="J154" s="383"/>
+      <c r="I154" s="394"/>
+      <c r="J154" s="395"/>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D155" s="73" t="s">
@@ -21171,21 +20926,21 @@
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="370" t="s">
+      <c r="D176" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E176" s="370"/>
-      <c r="F176" s="370"/>
+      <c r="E176" s="387"/>
+      <c r="F176" s="387"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D177" s="371"/>
-      <c r="E177" s="371"/>
-      <c r="F177" s="371"/>
+      <c r="D177" s="388"/>
+      <c r="E177" s="388"/>
+      <c r="F177" s="388"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D178" s="371"/>
-      <c r="E178" s="371"/>
-      <c r="F178" s="371"/>
+      <c r="D178" s="388"/>
+      <c r="E178" s="388"/>
+      <c r="F178" s="388"/>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="50"/>
@@ -21236,7 +20991,7 @@
       </c>
     </row>
     <row r="182" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="395" t="s">
+      <c r="B182" s="370" t="s">
         <v>123</v>
       </c>
       <c r="D182" s="73" t="s">
@@ -21271,7 +21026,7 @@
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="395"/>
+      <c r="B183" s="370"/>
       <c r="D183" s="75" t="s">
         <v>100</v>
       </c>
@@ -21289,7 +21044,7 @@
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="395"/>
+      <c r="B184" s="370"/>
       <c r="D184" s="75" t="s">
         <v>100</v>
       </c>
@@ -21307,7 +21062,7 @@
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="395"/>
+      <c r="B185" s="370"/>
       <c r="D185" s="75" t="s">
         <v>100</v>
       </c>
@@ -21330,7 +21085,7 @@
       </c>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="395"/>
+      <c r="B186" s="370"/>
       <c r="D186" s="75" t="s">
         <v>100</v>
       </c>
@@ -21346,17 +21101,17 @@
       <c r="H186" s="182">
         <v>209.4545454545447</v>
       </c>
-      <c r="J186" s="372" t="s">
+      <c r="J186" s="389" t="s">
         <v>112</v>
       </c>
-      <c r="K186" s="373"/>
+      <c r="K186" s="390"/>
       <c r="L186" s="116">
         <f>H182*$J$182+H189*$K$182+H196*$L$182+H203*$M$182+H210*$N$182</f>
         <v>230.39999999999918</v>
       </c>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="395"/>
+      <c r="B187" s="370"/>
       <c r="D187" s="75" t="s">
         <v>100</v>
       </c>
@@ -21372,17 +21127,17 @@
       <c r="H187" s="182">
         <v>240.71641791044686</v>
       </c>
-      <c r="J187" s="372" t="s">
+      <c r="J187" s="389" t="s">
         <v>113</v>
       </c>
-      <c r="K187" s="373"/>
+      <c r="K187" s="390"/>
       <c r="L187" s="116">
         <f t="shared" ref="L187:L192" si="44">H183*$J$182+H190*$K$182+H197*$L$182+H204*$M$182+H211*$N$182</f>
         <v>249.77943925233555</v>
       </c>
     </row>
     <row r="188" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="395"/>
+      <c r="B188" s="370"/>
       <c r="D188" s="77" t="s">
         <v>100</v>
       </c>
@@ -21398,17 +21153,17 @@
       <c r="H188" s="183">
         <v>260.1290322580636</v>
       </c>
-      <c r="J188" s="372" t="s">
+      <c r="J188" s="389" t="s">
         <v>114</v>
       </c>
-      <c r="K188" s="373"/>
+      <c r="K188" s="390"/>
       <c r="L188" s="116">
         <f t="shared" si="44"/>
         <v>275.52989690721552</v>
       </c>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="395" t="s">
+      <c r="B189" s="370" t="s">
         <v>124</v>
       </c>
       <c r="D189" s="73" t="s">
@@ -21426,17 +21181,17 @@
       <c r="H189" s="184">
         <v>198.6206896551717</v>
       </c>
-      <c r="J189" s="372" t="s">
+      <c r="J189" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="K189" s="373"/>
+      <c r="K189" s="390"/>
       <c r="L189" s="116">
         <f t="shared" si="44"/>
         <v>307.19999999999891</v>
       </c>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="395"/>
+      <c r="B190" s="370"/>
       <c r="D190" s="75" t="s">
         <v>100</v>
       </c>
@@ -21452,17 +21207,17 @@
       <c r="H190" s="182">
         <v>215.32710280373755</v>
       </c>
-      <c r="J190" s="372" t="s">
+      <c r="J190" s="389" t="s">
         <v>130</v>
       </c>
-      <c r="K190" s="373"/>
+      <c r="K190" s="390"/>
       <c r="L190" s="116">
         <f t="shared" si="44"/>
         <v>347.0961038961027</v>
       </c>
     </row>
     <row r="191" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="395"/>
+      <c r="B191" s="370"/>
       <c r="D191" s="75" t="s">
         <v>100</v>
       </c>
@@ -21478,17 +21233,17 @@
       <c r="H191" s="182">
         <v>237.52577319587542</v>
       </c>
-      <c r="J191" s="372" t="s">
+      <c r="J191" s="389" t="s">
         <v>131</v>
       </c>
-      <c r="K191" s="373"/>
+      <c r="K191" s="390"/>
       <c r="L191" s="116">
         <f t="shared" si="44"/>
         <v>398.90149253731192</v>
       </c>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="395"/>
+      <c r="B192" s="370"/>
       <c r="D192" s="75" t="s">
         <v>100</v>
       </c>
@@ -21504,17 +21259,17 @@
       <c r="H192" s="182">
         <v>264.8275862068956</v>
       </c>
-      <c r="J192" s="372" t="s">
+      <c r="J192" s="389" t="s">
         <v>132</v>
       </c>
-      <c r="K192" s="373"/>
+      <c r="K192" s="390"/>
       <c r="L192" s="116">
         <f t="shared" si="44"/>
         <v>431.07096774193394</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="395"/>
+      <c r="B193" s="370"/>
       <c r="D193" s="75" t="s">
         <v>100</v>
       </c>
@@ -21532,7 +21287,7 @@
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="395"/>
+      <c r="B194" s="370"/>
       <c r="D194" s="75" t="s">
         <v>100</v>
       </c>
@@ -21550,7 +21305,7 @@
       </c>
     </row>
     <row r="195" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="395"/>
+      <c r="B195" s="370"/>
       <c r="D195" s="81" t="s">
         <v>100</v>
       </c>
@@ -21568,7 +21323,7 @@
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="395" t="s">
+      <c r="B196" s="370" t="s">
         <v>125</v>
       </c>
       <c r="D196" s="83" t="s">
@@ -21588,7 +21343,7 @@
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="395"/>
+      <c r="B197" s="370"/>
       <c r="D197" s="75" t="s">
         <v>100</v>
       </c>
@@ -21606,7 +21361,7 @@
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="395"/>
+      <c r="B198" s="370"/>
       <c r="D198" s="75" t="s">
         <v>100</v>
       </c>
@@ -21624,7 +21379,7 @@
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="395"/>
+      <c r="B199" s="370"/>
       <c r="D199" s="75" t="s">
         <v>100</v>
       </c>
@@ -21642,7 +21397,7 @@
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="395"/>
+      <c r="B200" s="370"/>
       <c r="D200" s="75" t="s">
         <v>100</v>
       </c>
@@ -21660,7 +21415,7 @@
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="395"/>
+      <c r="B201" s="370"/>
       <c r="D201" s="75" t="s">
         <v>100</v>
       </c>
@@ -21678,7 +21433,7 @@
       </c>
     </row>
     <row r="202" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="395"/>
+      <c r="B202" s="370"/>
       <c r="D202" s="81" t="s">
         <v>100</v>
       </c>
@@ -21696,7 +21451,7 @@
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="395" t="s">
+      <c r="B203" s="370" t="s">
         <v>126</v>
       </c>
       <c r="D203" s="83" t="s">
@@ -21716,7 +21471,7 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="395"/>
+      <c r="B204" s="370"/>
       <c r="D204" s="75" t="s">
         <v>100</v>
       </c>
@@ -21734,7 +21489,7 @@
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="395"/>
+      <c r="B205" s="370"/>
       <c r="D205" s="75" t="s">
         <v>100</v>
       </c>
@@ -21752,7 +21507,7 @@
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="395"/>
+      <c r="B206" s="370"/>
       <c r="D206" s="75" t="s">
         <v>100</v>
       </c>
@@ -21770,7 +21525,7 @@
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="395"/>
+      <c r="B207" s="370"/>
       <c r="D207" s="75" t="s">
         <v>100</v>
       </c>
@@ -21788,7 +21543,7 @@
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="395"/>
+      <c r="B208" s="370"/>
       <c r="D208" s="75" t="s">
         <v>100</v>
       </c>
@@ -21806,7 +21561,7 @@
       </c>
     </row>
     <row r="209" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="395"/>
+      <c r="B209" s="370"/>
       <c r="D209" s="77" t="s">
         <v>100</v>
       </c>
@@ -21824,7 +21579,7 @@
       </c>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B210" s="395" t="s">
+      <c r="B210" s="370" t="s">
         <v>127</v>
       </c>
       <c r="D210" s="73" t="s">
@@ -21844,7 +21599,7 @@
       </c>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B211" s="395"/>
+      <c r="B211" s="370"/>
       <c r="D211" s="75" t="s">
         <v>100</v>
       </c>
@@ -21862,7 +21617,7 @@
       </c>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B212" s="395"/>
+      <c r="B212" s="370"/>
       <c r="D212" s="75" t="s">
         <v>100</v>
       </c>
@@ -21880,7 +21635,7 @@
       </c>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="395"/>
+      <c r="B213" s="370"/>
       <c r="D213" s="75" t="s">
         <v>100</v>
       </c>
@@ -21898,7 +21653,7 @@
       </c>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B214" s="395"/>
+      <c r="B214" s="370"/>
       <c r="D214" s="75" t="s">
         <v>100</v>
       </c>
@@ -21916,7 +21671,7 @@
       </c>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="395"/>
+      <c r="B215" s="370"/>
       <c r="D215" s="75" t="s">
         <v>100</v>
       </c>
@@ -21934,7 +21689,7 @@
       </c>
     </row>
     <row r="216" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="395"/>
+      <c r="B216" s="370"/>
       <c r="D216" s="81" t="s">
         <v>100</v>
       </c>
@@ -21952,20 +21707,20 @@
       </c>
     </row>
     <row r="217" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="370" t="s">
+      <c r="D217" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E217" s="370"/>
-      <c r="F217" s="370"/>
-      <c r="G217" s="370"/>
-      <c r="H217" s="370"/>
+      <c r="E217" s="387"/>
+      <c r="F217" s="387"/>
+      <c r="G217" s="387"/>
+      <c r="H217" s="387"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D218" s="371"/>
-      <c r="E218" s="371"/>
-      <c r="F218" s="371"/>
-      <c r="G218" s="371"/>
-      <c r="H218" s="371"/>
+      <c r="D218" s="388"/>
+      <c r="E218" s="388"/>
+      <c r="F218" s="388"/>
+      <c r="G218" s="388"/>
+      <c r="H218" s="388"/>
     </row>
     <row r="220" spans="2:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D220" s="180" t="s">
@@ -22041,10 +21796,10 @@
       <c r="O222" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R222" s="392" t="s">
+      <c r="R222" s="374" t="s">
         <v>112</v>
       </c>
-      <c r="S222" s="393"/>
+      <c r="S222" s="375"/>
       <c r="T222" s="104">
         <f>I222*$K$223+I225*$L$223+I228*$M$223+I231*$N$223+I234*$O$223</f>
         <v>7997.2788862459374</v>
@@ -22084,10 +21839,10 @@
       <c r="O223" s="102">
         <v>0.02</v>
       </c>
-      <c r="R223" s="392" t="s">
+      <c r="R223" s="374" t="s">
         <v>113</v>
       </c>
-      <c r="S223" s="393"/>
+      <c r="S223" s="375"/>
       <c r="T223" s="104">
         <f>I223*$K$223+I226*$L$223+I229*$M$223+I232*$N$223+I235*$O$223</f>
         <v>8194.1635171830039</v>
@@ -22112,10 +21867,10 @@
       <c r="I224" s="202">
         <v>2792.7179487179487</v>
       </c>
-      <c r="R224" s="392" t="s">
+      <c r="R224" s="374" t="s">
         <v>114</v>
       </c>
-      <c r="S224" s="393"/>
+      <c r="S224" s="375"/>
       <c r="T224" s="104">
         <f>I224*$K$223+I227*$L$223+I230*$M$223+I233*$N$223+I236*$O$223</f>
         <v>8444.2043794558067</v>
@@ -22431,22 +22186,22 @@
       </c>
     </row>
     <row r="240" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D240" s="370" t="s">
+      <c r="D240" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="370"/>
-      <c r="F240" s="370"/>
-      <c r="G240" s="370"/>
-      <c r="H240" s="370"/>
-      <c r="I240" s="370"/>
+      <c r="E240" s="387"/>
+      <c r="F240" s="387"/>
+      <c r="G240" s="387"/>
+      <c r="H240" s="387"/>
+      <c r="I240" s="387"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D241" s="371"/>
-      <c r="E241" s="371"/>
-      <c r="F241" s="371"/>
-      <c r="G241" s="371"/>
-      <c r="H241" s="371"/>
-      <c r="I241" s="371"/>
+      <c r="D241" s="388"/>
+      <c r="E241" s="388"/>
+      <c r="F241" s="388"/>
+      <c r="G241" s="388"/>
+      <c r="H241" s="388"/>
+      <c r="I241" s="388"/>
     </row>
     <row r="297" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="298" spans="19:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22582,33 +22337,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B182:B188"/>
-    <mergeCell ref="B189:B195"/>
-    <mergeCell ref="B196:B202"/>
-    <mergeCell ref="B203:B209"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="AN41:AR42"/>
-    <mergeCell ref="AN40:AR40"/>
-    <mergeCell ref="P41:S42"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AB41:AE42"/>
-    <mergeCell ref="AH40:AK40"/>
-    <mergeCell ref="AH41:AK42"/>
-    <mergeCell ref="R222:S222"/>
-    <mergeCell ref="R223:S223"/>
-    <mergeCell ref="R224:S224"/>
-    <mergeCell ref="R221:S221"/>
-    <mergeCell ref="K221:O221"/>
-    <mergeCell ref="L101:O103"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="H94:J96"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P83"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M42"/>
     <mergeCell ref="D240:I241"/>
     <mergeCell ref="D217:H218"/>
     <mergeCell ref="D81:K82"/>
@@ -22625,6 +22353,33 @@
     <mergeCell ref="J190:K190"/>
     <mergeCell ref="H113:L113"/>
     <mergeCell ref="H154:J154"/>
+    <mergeCell ref="L101:O103"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="H94:J96"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P83"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M42"/>
+    <mergeCell ref="R222:S222"/>
+    <mergeCell ref="R223:S223"/>
+    <mergeCell ref="R224:S224"/>
+    <mergeCell ref="R221:S221"/>
+    <mergeCell ref="K221:O221"/>
+    <mergeCell ref="AN41:AR42"/>
+    <mergeCell ref="AN40:AR40"/>
+    <mergeCell ref="P41:S42"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AB41:AE42"/>
+    <mergeCell ref="AH40:AK40"/>
+    <mergeCell ref="AH41:AK42"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="B189:B195"/>
+    <mergeCell ref="B196:B202"/>
+    <mergeCell ref="B203:B209"/>
+    <mergeCell ref="B210:B216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22633,12 +22388,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22731,7 +22486,7 @@
         <v>2011</v>
       </c>
       <c r="P5" s="211"/>
-      <c r="Q5" s="214">
+      <c r="Q5" s="399">
         <f>[4]Hoja1!$N$11</f>
         <v>0.61926999999999999</v>
       </c>
@@ -23247,18 +23002,372 @@
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="B40" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="320" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="320"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="322" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="320"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="320"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="323" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="369" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="328" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="328" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="328" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="329" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="328" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="330" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="331"/>
+      <c r="I5" s="332" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="369"/>
+    </row>
+    <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="333" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="334"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="336" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="337">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="337">
+        <v>120</v>
+      </c>
+      <c r="D7" s="337" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="337" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="338">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="80">
+        <f t="shared" ref="H7:H12" si="0">VLOOKUP(I7,Tabla_mes,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="338" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="339">
+        <f>(Variables!G15-Variables!G12)/(1-Factores!$C$4)*1/1000*Factores!$Q$4*G7*H7/12</f>
+        <v>1992.8421746651782</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="337">
+        <v>2010</v>
+      </c>
+      <c r="C8" s="337">
+        <v>120</v>
+      </c>
+      <c r="D8" s="337" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="337" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="338">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="80">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="338" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="339">
+        <f>(Variables!G17-Variables!G12)/(1-Factores!$C$4)*1/1000*Factores!$Q$4*G8*H8/12</f>
+        <v>1153.750732700893</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="337">
+        <v>2011</v>
+      </c>
+      <c r="C9" s="337">
+        <v>225</v>
+      </c>
+      <c r="D9" s="337" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="337" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="338">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="80">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="338" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="339">
+        <f>(Variables!G23-Variables!G19)/(1-Factores!$C$5)*1/1000*Factores!$Q$5*G9*H9/12</f>
+        <v>3349.1361412789624</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="337">
+        <v>2011</v>
+      </c>
+      <c r="C10" s="337">
+        <v>375</v>
+      </c>
+      <c r="D10" s="337" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="337" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="338">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="80">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="338" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="339">
+        <f>(Variables!G28-Variables!G26)/(1-Factores!$C$5)*1/1000*Factores!$Q$5*G10*H10/12</f>
+        <v>912.98066633968574</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="337">
+        <v>2012</v>
+      </c>
+      <c r="C11" s="337">
+        <v>480</v>
+      </c>
+      <c r="D11" s="337" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="337" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="338">
+        <v>25000</v>
+      </c>
+      <c r="H11" s="80">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I11" s="338" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="339">
+        <f>(Variables!G36-Variables!G33)/(1-Factores!$C$6)*1/1000*Factores!$Q$6*G11*H11/12</f>
+        <v>3493.9463599794235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="337">
+        <v>2013</v>
+      </c>
+      <c r="C12" s="337">
+        <v>225</v>
+      </c>
+      <c r="D12" s="337" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="337" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="338">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="80">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="338" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" s="339">
+        <f>(Variables!Y22-Variables!Y19)/(1-Factores!$C$7)*1/1000*Factores!$Q$7*G12*H12/12</f>
+        <v>1963.7889507166576</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="341"/>
+      <c r="F13" s="342"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="343"/>
+      <c r="I13" s="343"/>
+      <c r="J13" s="344">
+        <f>SUM(J7:J12)</f>
+        <v>12866.445025680801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Lista_meses</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Variables!$B$12:$B$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:D12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Variables!$F$12:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>E7:F12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>Variables!$B$21:$B$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.1.EEE_refrigeradora_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.1.EEE_refrigeradora_exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A1A6D-3D30-4BE5-B654-352D1B682FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBAE80D-E43A-4783-BFDD-EBCD3EB82BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2400" windowWidth="14400" windowHeight="11625" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -2457,7 +2457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -2466,8 +2466,9 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -3748,7 +3749,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4351,9 +4352,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4592,6 +4590,25 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4658,99 +4675,92 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4851,7 +4861,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00000">
                   <c:v>184.39431999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4866,7 +4876,7 @@
                 <c:pt idx="4">
                   <c:v>393.93332000000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.0000">
                   <c:v>460.98580000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -4911,7 +4921,7 @@
                 <c:pt idx="19">
                   <c:v>578.62750000000005</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>631.23</c:v>
                 </c:pt>
                 <c:pt idx="21">
@@ -5029,7 +5039,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5177,7 +5187,7 @@
             <c:numRef>
               <c:f>Variables!$M$12:$M$39</c:f>
               <c:numCache>
-                <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>176.64380800000004</c:v>
@@ -5185,82 +5195,82 @@
                 <c:pt idx="1">
                   <c:v>208.760864</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>272.99497600000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>329.19982400000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>377.37540800000005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>441.60952000000003</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>481.75584000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>189.23839000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>223.64537000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>292.45932999999997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>352.67154499999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>404.28201499999994</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>473.09597499999995</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>516.10469999999998</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>207.23065000000003</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>244.90895</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>320.26555000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>386.20257500000002</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>442.72002500000002</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>518.07662500000004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>565.17450000000008</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>219.825232</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>259.79345599999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>339.72990399999998</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>409.67429599999997</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>469.62663199999997</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>549.56308000000001</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
                   <c:v>599.52335999999991</c:v>
                 </c:pt>
               </c:numCache>
@@ -5357,7 +5367,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11429,15 +11439,15 @@
       <sheetName val="Resumen"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
         <row r="4">
           <cell r="D4">
             <v>184.39431999999999</v>
@@ -12398,7 +12408,7 @@
       <sheetName val="Hoja1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="N5">
             <v>0.59799999999999998</v>
@@ -12900,30 +12910,30 @@
     </row>
     <row r="3" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="347" t="s">
+      <c r="B4" s="353" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="348"/>
-      <c r="D4" s="348"/>
-      <c r="E4" s="349"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="354"/>
+      <c r="E4" s="355"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="350"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="352"/>
+      <c r="B5" s="356"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="358"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="350"/>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="352"/>
+      <c r="B6" s="356"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="358"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="353"/>
-      <c r="C7" s="354"/>
-      <c r="D7" s="354"/>
-      <c r="E7" s="355"/>
+      <c r="B7" s="359"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="361"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
@@ -13210,25 +13220,25 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="359" t="s">
+      <c r="B4" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="359"/>
-      <c r="D4" s="359"/>
-      <c r="E4" s="359"/>
-      <c r="F4" s="359"/>
-      <c r="G4" s="359"/>
-      <c r="K4" s="360" t="s">
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="K4" s="366" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="360"/>
-      <c r="M4" s="360"/>
-      <c r="N4" s="360"/>
-      <c r="O4" s="360"/>
-      <c r="P4" s="360"/>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="360"/>
-      <c r="S4" s="360"/>
+      <c r="L4" s="366"/>
+      <c r="M4" s="366"/>
+      <c r="N4" s="366"/>
+      <c r="O4" s="366"/>
+      <c r="P4" s="366"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="366"/>
+      <c r="S4" s="366"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -13237,21 +13247,21 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="361" t="s">
+      <c r="K5" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="363" t="s">
+      <c r="L5" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="364"/>
-      <c r="N5" s="364"/>
-      <c r="O5" s="365"/>
-      <c r="P5" s="366" t="s">
+      <c r="M5" s="370"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="372" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="367"/>
-      <c r="R5" s="367"/>
-      <c r="S5" s="368"/>
+      <c r="Q5" s="373"/>
+      <c r="R5" s="373"/>
+      <c r="S5" s="374"/>
     </row>
     <row r="6" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -13260,7 +13270,7 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="362"/>
+      <c r="K6" s="368"/>
       <c r="L6" s="129" t="s">
         <v>10</v>
       </c>
@@ -13419,14 +13429,14 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="356" t="s">
+      <c r="B14" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="357"/>
-      <c r="D14" s="357"/>
-      <c r="E14" s="357"/>
-      <c r="F14" s="357"/>
-      <c r="G14" s="358"/>
+      <c r="C14" s="363"/>
+      <c r="D14" s="363"/>
+      <c r="E14" s="363"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="364"/>
     </row>
     <row r="15" spans="2:19" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
@@ -13506,8 +13516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AY305"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13635,7 +13645,7 @@
       <c r="J1" s="135">
         <v>20</v>
       </c>
-      <c r="K1" s="283">
+      <c r="K1" s="282">
         <v>23</v>
       </c>
       <c r="L1" s="135">
@@ -13672,19 +13682,19 @@
       <c r="D3" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="383" t="s">
+      <c r="E3" s="388" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
-      <c r="M3" s="383"/>
-      <c r="N3" s="383"/>
-      <c r="P3" s="306" t="s">
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="P3" s="305" t="s">
         <v>145</v>
       </c>
       <c r="Q3" s="133" t="s">
@@ -13716,7 +13726,7 @@
       <c r="J4" s="124">
         <v>150</v>
       </c>
-      <c r="K4" s="284">
+      <c r="K4" s="283">
         <v>200</v>
       </c>
       <c r="L4" s="132"/>
@@ -13755,7 +13765,7 @@
       <c r="J5" s="124">
         <v>100</v>
       </c>
-      <c r="K5" s="285"/>
+      <c r="K5" s="284"/>
       <c r="L5" s="132"/>
       <c r="M5" s="132"/>
       <c r="N5" s="132"/>
@@ -13792,7 +13802,7 @@
       <c r="J6" s="124">
         <v>30</v>
       </c>
-      <c r="K6" s="285"/>
+      <c r="K6" s="284"/>
       <c r="L6" s="132"/>
       <c r="M6" s="132"/>
       <c r="N6" s="132"/>
@@ -13829,7 +13839,7 @@
       <c r="J7" s="124">
         <v>16</v>
       </c>
-      <c r="K7" s="284">
+      <c r="K7" s="283">
         <v>20</v>
       </c>
       <c r="L7" s="124">
@@ -13862,7 +13872,7 @@
       <c r="H8" s="124"/>
       <c r="I8" s="124"/>
       <c r="J8" s="124"/>
-      <c r="K8" s="284"/>
+      <c r="K8" s="283"/>
       <c r="L8" s="124"/>
       <c r="M8" s="124"/>
       <c r="N8" s="124"/>
@@ -13877,7 +13887,7 @@
         <v>98</v>
       </c>
       <c r="G10" s="254"/>
-      <c r="K10" s="286"/>
+      <c r="K10" s="285"/>
       <c r="P10" s="254"/>
     </row>
     <row r="11" spans="2:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13900,7 +13910,7 @@
       <c r="J11" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="287" t="s">
+      <c r="K11" s="286" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="148" t="s">
@@ -13910,7 +13920,7 @@
         <v>75</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="P11" s="307" t="s">
+      <c r="P11" s="306" t="s">
         <v>51</v>
       </c>
       <c r="Q11" s="145" t="s">
@@ -13989,7 +13999,7 @@
       <c r="F12" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="256">
+      <c r="G12" s="349">
         <f>[1]Resumen!$D$4</f>
         <v>184.39431999999999</v>
       </c>
@@ -13997,18 +14007,18 @@
       <c r="J12" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="288">
+      <c r="K12" s="287">
         <v>120</v>
       </c>
       <c r="L12" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="186">
+      <c r="M12" s="351">
         <f>[1]Resumen!$D$8</f>
         <v>176.64380800000004</v>
       </c>
       <c r="N12" s="50"/>
-      <c r="P12" s="308" t="s">
+      <c r="P12" s="307" t="s">
         <v>168</v>
       </c>
       <c r="Q12" s="85">
@@ -14093,7 +14103,7 @@
       <c r="F13" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="257">
+      <c r="G13" s="256">
         <f>[1]Resumen!$E$4</f>
         <v>217.92055999999999</v>
       </c>
@@ -14104,14 +14114,14 @@
       <c r="J13" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="284">
+      <c r="K13" s="283">
         <f t="shared" ref="K13:K18" si="2">+K12</f>
         <v>120</v>
       </c>
       <c r="L13" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="187">
+      <c r="M13" s="352">
         <f>[1]Resumen!$E$8</f>
         <v>208.760864</v>
       </c>
@@ -14119,7 +14129,7 @@
         <f t="shared" ref="N13:N18" si="3">M13/M12-1</f>
         <v>0.18181818181818166</v>
       </c>
-      <c r="P13" s="309" t="s">
+      <c r="P13" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q13" s="220">
@@ -14224,7 +14234,7 @@
       <c r="F14" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="258">
+      <c r="G14" s="257">
         <f>[1]Resumen!$F$4</f>
         <v>284.97304000000003</v>
       </c>
@@ -14235,7 +14245,7 @@
       <c r="J14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="284">
+      <c r="K14" s="283">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14250,7 +14260,7 @@
         <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="P14" s="309" t="s">
+      <c r="P14" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q14" s="220">
@@ -14355,7 +14365,7 @@
       <c r="F15" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="258">
+      <c r="G15" s="257">
         <f>[1]Resumen!$G$4</f>
         <v>343.64395999999999</v>
       </c>
@@ -14366,7 +14376,7 @@
       <c r="J15" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="284">
+      <c r="K15" s="283">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14381,7 +14391,7 @@
         <f t="shared" si="3"/>
         <v>0.20588235294117663</v>
       </c>
-      <c r="P15" s="309" t="s">
+      <c r="P15" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q15" s="220">
@@ -14486,7 +14496,7 @@
       <c r="F16" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="258">
+      <c r="G16" s="257">
         <f>[1]Resumen!$H$4</f>
         <v>393.93332000000004</v>
       </c>
@@ -14497,7 +14507,7 @@
       <c r="J16" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="284">
+      <c r="K16" s="283">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14512,7 +14522,7 @@
         <f t="shared" si="3"/>
         <v>0.14634146341463428</v>
       </c>
-      <c r="P16" s="309" t="s">
+      <c r="P16" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q16" s="220">
@@ -14617,7 +14627,7 @@
       <c r="F17" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="258">
+      <c r="G17" s="346">
         <f>[1]Resumen!$I$4</f>
         <v>460.98580000000004</v>
       </c>
@@ -14628,7 +14638,7 @@
       <c r="J17" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="284">
+      <c r="K17" s="283">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14643,7 +14653,7 @@
         <f t="shared" si="3"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P17" s="309" t="s">
+      <c r="P17" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q17" s="220">
@@ -14748,7 +14758,7 @@
       <c r="F18" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="259">
+      <c r="G18" s="258">
         <f>[1]Resumen!$J$4</f>
         <v>502.89359999999999</v>
       </c>
@@ -14759,7 +14769,7 @@
       <c r="J18" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="284">
+      <c r="K18" s="283">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14774,7 +14784,7 @@
         <f t="shared" si="3"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="P18" s="310" t="s">
+      <c r="P18" s="309" t="s">
         <v>168</v>
       </c>
       <c r="Q18" s="220">
@@ -14875,7 +14885,7 @@
       <c r="F19" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="400">
+      <c r="G19" s="348">
         <f>[1]Resumen!$D$5</f>
         <v>203.7706</v>
       </c>
@@ -14884,7 +14894,7 @@
       <c r="J19" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="288">
+      <c r="K19" s="287">
         <v>225</v>
       </c>
       <c r="L19" s="49" t="s">
@@ -14895,7 +14905,7 @@
         <v>189.23839000000001</v>
       </c>
       <c r="N19" s="56"/>
-      <c r="P19" s="311" t="s">
+      <c r="P19" s="310" t="s">
         <v>168</v>
       </c>
       <c r="Q19" s="49">
@@ -14979,7 +14989,7 @@
       <c r="F20" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="257">
+      <c r="G20" s="256">
         <f>[1]Resumen!$E$5</f>
         <v>240.81979999999999</v>
       </c>
@@ -14991,7 +15001,7 @@
       <c r="J20" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="284">
+      <c r="K20" s="283">
         <v>225</v>
       </c>
       <c r="L20" s="172" t="s">
@@ -15005,7 +15015,7 @@
         <f t="shared" ref="N20:N25" si="15">M20/M19-1</f>
         <v>0.18181818181818188</v>
       </c>
-      <c r="P20" s="309" t="s">
+      <c r="P20" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q20" s="140">
@@ -15104,7 +15114,7 @@
       <c r="F21" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="258">
+      <c r="G21" s="257">
         <f>[1]Resumen!$F$5</f>
         <v>314.91820000000001</v>
       </c>
@@ -15116,7 +15126,7 @@
       <c r="J21" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="284">
+      <c r="K21" s="283">
         <v>225</v>
       </c>
       <c r="L21" s="172" t="s">
@@ -15130,7 +15140,7 @@
         <f t="shared" si="15"/>
         <v>0.30769230769230749</v>
       </c>
-      <c r="P21" s="309" t="s">
+      <c r="P21" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q21" s="140">
@@ -15229,7 +15239,7 @@
       <c r="F22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="258">
+      <c r="G22" s="257">
         <f>[1]Resumen!$G$5</f>
         <v>379.7543</v>
       </c>
@@ -15241,7 +15251,7 @@
       <c r="J22" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="284">
+      <c r="K22" s="283">
         <v>225</v>
       </c>
       <c r="L22" s="172" t="s">
@@ -15255,7 +15265,7 @@
         <f t="shared" si="15"/>
         <v>0.20588235294117663</v>
       </c>
-      <c r="P22" s="309" t="s">
+      <c r="P22" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q22" s="140">
@@ -15354,7 +15364,7 @@
       <c r="F23" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="398">
+      <c r="G23" s="346">
         <f>[1]Resumen!$H$5</f>
         <v>435.32810000000006</v>
       </c>
@@ -15366,7 +15376,7 @@
       <c r="J23" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K23" s="284">
+      <c r="K23" s="283">
         <v>225</v>
       </c>
       <c r="L23" s="172" t="s">
@@ -15380,7 +15390,7 @@
         <f t="shared" si="15"/>
         <v>0.14634146341463405</v>
       </c>
-      <c r="P23" s="309" t="s">
+      <c r="P23" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q23" s="140">
@@ -15479,7 +15489,7 @@
       <c r="F24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="258">
+      <c r="G24" s="257">
         <f>[1]Resumen!$I$5</f>
         <v>509.42650000000003</v>
       </c>
@@ -15490,7 +15500,7 @@
       <c r="J24" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="284">
+      <c r="K24" s="283">
         <v>225</v>
       </c>
       <c r="L24" s="172" t="s">
@@ -15504,7 +15514,7 @@
         <f t="shared" si="15"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P24" s="309" t="s">
+      <c r="P24" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q24" s="140">
@@ -15600,7 +15610,7 @@
       <c r="F25" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="259">
+      <c r="G25" s="258">
         <f>[1]Resumen!$J$5</f>
         <v>555.73800000000006</v>
       </c>
@@ -15612,7 +15622,7 @@
       <c r="J25" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="289">
+      <c r="K25" s="288">
         <v>225</v>
       </c>
       <c r="L25" s="71" t="s">
@@ -15626,7 +15636,7 @@
         <f t="shared" si="15"/>
         <v>9.090909090909105E-2</v>
       </c>
-      <c r="P25" s="310" t="s">
+      <c r="P25" s="309" t="s">
         <v>168</v>
       </c>
       <c r="Q25" s="61">
@@ -15722,7 +15732,7 @@
       <c r="F26" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="260">
+      <c r="G26" s="259">
         <f>[1]Resumen!$D$6</f>
         <v>231.45099999999999</v>
       </c>
@@ -15731,7 +15741,7 @@
       <c r="J26" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="290">
+      <c r="K26" s="289">
         <v>375</v>
       </c>
       <c r="L26" s="85" t="s">
@@ -15742,7 +15752,7 @@
         <v>207.23065000000003</v>
       </c>
       <c r="N26" s="56"/>
-      <c r="P26" s="311" t="s">
+      <c r="P26" s="310" t="s">
         <v>168</v>
       </c>
       <c r="Q26" s="49">
@@ -15823,7 +15833,7 @@
       <c r="F27" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="257">
+      <c r="G27" s="256">
         <f>[1]Resumen!$E$6</f>
         <v>273.53300000000002</v>
       </c>
@@ -15835,7 +15845,7 @@
       <c r="J27" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="284">
+      <c r="K27" s="283">
         <v>375</v>
       </c>
       <c r="L27" s="140" t="s">
@@ -15849,7 +15859,7 @@
         <f t="shared" ref="N27:N32" si="22">M27/M26-1</f>
         <v>0.18181818181818166</v>
       </c>
-      <c r="P27" s="309" t="s">
+      <c r="P27" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q27" s="140">
@@ -15945,7 +15955,7 @@
       <c r="F28" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="258">
+      <c r="G28" s="257">
         <f>[1]Resumen!$F$6</f>
         <v>357.69699999999995</v>
       </c>
@@ -15957,7 +15967,7 @@
       <c r="J28" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="284">
+      <c r="K28" s="283">
         <v>375</v>
       </c>
       <c r="L28" s="140" t="s">
@@ -15971,7 +15981,7 @@
         <f t="shared" si="22"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="P28" s="309" t="s">
+      <c r="P28" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q28" s="140">
@@ -16067,7 +16077,7 @@
       <c r="F29" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="258">
+      <c r="G29" s="257">
         <f>[1]Resumen!$G$6</f>
         <v>431.34050000000002</v>
       </c>
@@ -16079,7 +16089,7 @@
       <c r="J29" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="284">
+      <c r="K29" s="283">
         <v>375</v>
       </c>
       <c r="L29" s="140" t="s">
@@ -16093,7 +16103,7 @@
         <f t="shared" si="22"/>
         <v>0.20588235294117641</v>
       </c>
-      <c r="P29" s="309" t="s">
+      <c r="P29" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q29" s="140">
@@ -16189,7 +16199,7 @@
       <c r="F30" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="258">
+      <c r="G30" s="257">
         <f>[1]Resumen!$H$6</f>
         <v>494.46350000000001</v>
       </c>
@@ -16201,7 +16211,7 @@
       <c r="J30" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K30" s="284">
+      <c r="K30" s="283">
         <v>375</v>
       </c>
       <c r="L30" s="140" t="s">
@@ -16215,7 +16225,7 @@
         <f t="shared" si="22"/>
         <v>0.14634146341463405</v>
       </c>
-      <c r="P30" s="309" t="s">
+      <c r="P30" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q30" s="140">
@@ -16311,7 +16321,7 @@
       <c r="F31" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="258">
+      <c r="G31" s="257">
         <f>[1]Resumen!$I$6</f>
         <v>578.62750000000005</v>
       </c>
@@ -16323,7 +16333,7 @@
       <c r="J31" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K31" s="284">
+      <c r="K31" s="283">
         <v>375</v>
       </c>
       <c r="L31" s="140" t="s">
@@ -16337,7 +16347,7 @@
         <f t="shared" si="22"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P31" s="309" t="s">
+      <c r="P31" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q31" s="140">
@@ -16433,7 +16443,7 @@
       <c r="F32" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="259">
+      <c r="G32" s="350">
         <f>[1]Resumen!$J$6</f>
         <v>631.23</v>
       </c>
@@ -16445,7 +16455,7 @@
       <c r="J32" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="291">
+      <c r="K32" s="290">
         <v>375</v>
       </c>
       <c r="L32" s="61" t="s">
@@ -16459,7 +16469,7 @@
         <f t="shared" si="22"/>
         <v>9.090909090909105E-2</v>
       </c>
-      <c r="P32" s="310" t="s">
+      <c r="P32" s="309" t="s">
         <v>168</v>
       </c>
       <c r="Q32" s="61">
@@ -16555,7 +16565,7 @@
       <c r="F33" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="260">
+      <c r="G33" s="259">
         <f>[1]Resumen!$D$7</f>
         <v>250.82728</v>
       </c>
@@ -16564,7 +16574,7 @@
       <c r="J33" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="288">
+      <c r="K33" s="287">
         <v>480</v>
       </c>
       <c r="L33" s="49" t="s">
@@ -16575,7 +16585,7 @@
         <v>219.825232</v>
       </c>
       <c r="N33" s="56"/>
-      <c r="P33" s="311" t="s">
+      <c r="P33" s="310" t="s">
         <v>168</v>
       </c>
       <c r="Q33" s="49">
@@ -16656,7 +16666,7 @@
       <c r="F34" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="257">
+      <c r="G34" s="256">
         <f>[1]Resumen!$E$7</f>
         <v>296.43223999999998</v>
       </c>
@@ -16668,7 +16678,7 @@
       <c r="J34" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="284">
+      <c r="K34" s="283">
         <v>480</v>
       </c>
       <c r="L34" s="172" t="s">
@@ -16682,7 +16692,7 @@
         <f t="shared" ref="N34:N39" si="29">M34/M33-1</f>
         <v>0.18181818181818188</v>
       </c>
-      <c r="P34" s="309" t="s">
+      <c r="P34" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q34" s="140">
@@ -16778,7 +16788,7 @@
       <c r="F35" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="258">
+      <c r="G35" s="257">
         <f>[1]Resumen!$F$7</f>
         <v>387.64215999999999</v>
       </c>
@@ -16790,7 +16800,7 @@
       <c r="J35" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K35" s="284">
+      <c r="K35" s="283">
         <v>480</v>
       </c>
       <c r="L35" s="172" t="s">
@@ -16804,7 +16814,7 @@
         <f t="shared" si="29"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="P35" s="309" t="s">
+      <c r="P35" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q35" s="140">
@@ -16900,7 +16910,7 @@
       <c r="F36" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="258">
+      <c r="G36" s="257">
         <f>[1]Resumen!$G$7</f>
         <v>467.45084000000003</v>
       </c>
@@ -16912,7 +16922,7 @@
       <c r="J36" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K36" s="284">
+      <c r="K36" s="283">
         <v>480</v>
       </c>
       <c r="L36" s="172" t="s">
@@ -16926,7 +16936,7 @@
         <f t="shared" si="29"/>
         <v>0.20588235294117641</v>
       </c>
-      <c r="P36" s="309" t="s">
+      <c r="P36" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q36" s="140">
@@ -17022,7 +17032,7 @@
       <c r="F37" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="258">
+      <c r="G37" s="257">
         <f>[1]Resumen!$H$7</f>
         <v>535.85828000000004</v>
       </c>
@@ -17034,7 +17044,7 @@
       <c r="J37" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K37" s="284">
+      <c r="K37" s="283">
         <v>480</v>
       </c>
       <c r="L37" s="172" t="s">
@@ -17048,7 +17058,7 @@
         <f t="shared" si="29"/>
         <v>0.14634146341463405</v>
       </c>
-      <c r="P37" s="309" t="s">
+      <c r="P37" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q37" s="140">
@@ -17144,7 +17154,7 @@
       <c r="F38" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="258">
+      <c r="G38" s="257">
         <f>[1]Resumen!$I$7</f>
         <v>627.06820000000005</v>
       </c>
@@ -17156,7 +17166,7 @@
       <c r="J38" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="284">
+      <c r="K38" s="283">
         <v>480</v>
       </c>
       <c r="L38" s="172" t="s">
@@ -17170,7 +17180,7 @@
         <f t="shared" si="29"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P38" s="309" t="s">
+      <c r="P38" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q38" s="140">
@@ -17266,7 +17276,7 @@
       <c r="F39" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="261">
+      <c r="G39" s="260">
         <f>[1]Resumen!$J$7</f>
         <v>684.07439999999997</v>
       </c>
@@ -17278,7 +17288,7 @@
       <c r="J39" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K39" s="289">
+      <c r="K39" s="288">
         <v>480</v>
       </c>
       <c r="L39" s="71" t="s">
@@ -17292,7 +17302,7 @@
         <f t="shared" si="29"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="P39" s="312" t="s">
+      <c r="P39" s="311" t="s">
         <v>168</v>
       </c>
       <c r="Q39" s="71">
@@ -17379,23 +17389,23 @@
       </c>
     </row>
     <row r="40" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
+      <c r="E40" s="389"/>
+      <c r="F40" s="389"/>
+      <c r="G40" s="389"/>
       <c r="H40" s="222"/>
       <c r="I40" s="222"/>
-      <c r="J40" s="384" t="s">
+      <c r="J40" s="389" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
-      <c r="M40" s="384"/>
+      <c r="K40" s="389"/>
+      <c r="L40" s="389"/>
+      <c r="M40" s="389"/>
       <c r="N40" s="222"/>
       <c r="O40" s="222"/>
-      <c r="P40" s="313" t="s">
+      <c r="P40" s="312" t="s">
         <v>169</v>
       </c>
       <c r="Q40" s="225"/>
@@ -17403,13 +17413,13 @@
       <c r="S40" s="225"/>
       <c r="T40" s="224"/>
       <c r="U40" s="224"/>
-      <c r="V40" s="372" t="s">
+      <c r="V40" s="377" t="s">
         <v>171</v>
       </c>
-      <c r="W40" s="372"/>
-      <c r="X40" s="372"/>
-      <c r="Y40" s="372"/>
-      <c r="Z40" s="372"/>
+      <c r="W40" s="377"/>
+      <c r="X40" s="377"/>
+      <c r="Y40" s="377"/>
+      <c r="Z40" s="377"/>
       <c r="AA40" s="224"/>
       <c r="AB40" s="226" t="s">
         <v>174</v>
@@ -17417,19 +17427,19 @@
       <c r="AC40" s="224"/>
       <c r="AD40" s="224"/>
       <c r="AG40" s="224"/>
-      <c r="AH40" s="373" t="s">
+      <c r="AH40" s="378" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="373"/>
-      <c r="AJ40" s="373"/>
-      <c r="AK40" s="373"/>
-      <c r="AN40" s="372" t="s">
+      <c r="AI40" s="378"/>
+      <c r="AJ40" s="378"/>
+      <c r="AK40" s="378"/>
+      <c r="AN40" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="AO40" s="372"/>
-      <c r="AP40" s="372"/>
-      <c r="AQ40" s="372"/>
-      <c r="AR40" s="372"/>
+      <c r="AO40" s="377"/>
+      <c r="AP40" s="377"/>
+      <c r="AQ40" s="377"/>
+      <c r="AR40" s="377"/>
       <c r="AU40" s="224"/>
       <c r="AV40" s="224"/>
       <c r="AW40" s="224"/>
@@ -17437,58 +17447,58 @@
       <c r="AY40" s="224"/>
     </row>
     <row r="41" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="371" t="s">
+      <c r="D41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="371"/>
-      <c r="F41" s="371"/>
-      <c r="G41" s="371"/>
+      <c r="E41" s="376"/>
+      <c r="F41" s="376"/>
+      <c r="G41" s="376"/>
       <c r="H41" s="223"/>
       <c r="I41" s="223"/>
-      <c r="J41" s="371" t="s">
+      <c r="J41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="371"/>
-      <c r="L41" s="371"/>
-      <c r="M41" s="371"/>
+      <c r="K41" s="376"/>
+      <c r="L41" s="376"/>
+      <c r="M41" s="376"/>
       <c r="N41" s="223"/>
       <c r="O41" s="223"/>
-      <c r="P41" s="371" t="s">
+      <c r="P41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="371"/>
-      <c r="R41" s="371"/>
-      <c r="S41" s="371"/>
+      <c r="Q41" s="376"/>
+      <c r="R41" s="376"/>
+      <c r="S41" s="376"/>
       <c r="T41" s="223"/>
       <c r="U41" s="223"/>
-      <c r="V41" s="371" t="s">
+      <c r="V41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="W41" s="371"/>
-      <c r="X41" s="371"/>
-      <c r="Y41" s="371"/>
-      <c r="Z41" s="371"/>
+      <c r="W41" s="376"/>
+      <c r="X41" s="376"/>
+      <c r="Y41" s="376"/>
+      <c r="Z41" s="376"/>
       <c r="AA41" s="223"/>
-      <c r="AB41" s="371" t="s">
+      <c r="AB41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="AC41" s="371"/>
-      <c r="AD41" s="371"/>
-      <c r="AE41" s="371"/>
+      <c r="AC41" s="376"/>
+      <c r="AD41" s="376"/>
+      <c r="AE41" s="376"/>
       <c r="AG41" s="223"/>
-      <c r="AH41" s="371" t="s">
+      <c r="AH41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="AI41" s="371"/>
-      <c r="AJ41" s="371"/>
-      <c r="AK41" s="371"/>
-      <c r="AN41" s="371" t="s">
+      <c r="AI41" s="376"/>
+      <c r="AJ41" s="376"/>
+      <c r="AK41" s="376"/>
+      <c r="AN41" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="AO41" s="371"/>
-      <c r="AP41" s="371"/>
-      <c r="AQ41" s="371"/>
-      <c r="AR41" s="371"/>
+      <c r="AO41" s="376"/>
+      <c r="AP41" s="376"/>
+      <c r="AQ41" s="376"/>
+      <c r="AR41" s="376"/>
       <c r="AU41" s="223"/>
       <c r="AV41" s="223"/>
       <c r="AW41" s="223"/>
@@ -17496,46 +17506,46 @@
       <c r="AY41" s="223"/>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="D42" s="371"/>
-      <c r="E42" s="371"/>
-      <c r="F42" s="371"/>
-      <c r="G42" s="371"/>
+      <c r="D42" s="376"/>
+      <c r="E42" s="376"/>
+      <c r="F42" s="376"/>
+      <c r="G42" s="376"/>
       <c r="H42" s="223"/>
       <c r="I42" s="223"/>
-      <c r="J42" s="371"/>
-      <c r="K42" s="371"/>
-      <c r="L42" s="371"/>
-      <c r="M42" s="371"/>
+      <c r="J42" s="376"/>
+      <c r="K42" s="376"/>
+      <c r="L42" s="376"/>
+      <c r="M42" s="376"/>
       <c r="N42" s="223"/>
       <c r="O42" s="223"/>
-      <c r="P42" s="371"/>
-      <c r="Q42" s="371"/>
-      <c r="R42" s="371"/>
-      <c r="S42" s="371"/>
+      <c r="P42" s="376"/>
+      <c r="Q42" s="376"/>
+      <c r="R42" s="376"/>
+      <c r="S42" s="376"/>
       <c r="T42" s="223"/>
       <c r="U42" s="223"/>
-      <c r="V42" s="371"/>
-      <c r="W42" s="371"/>
-      <c r="X42" s="371"/>
-      <c r="Y42" s="371"/>
-      <c r="Z42" s="371"/>
+      <c r="V42" s="376"/>
+      <c r="W42" s="376"/>
+      <c r="X42" s="376"/>
+      <c r="Y42" s="376"/>
+      <c r="Z42" s="376"/>
       <c r="AA42" s="223"/>
-      <c r="AB42" s="371"/>
-      <c r="AC42" s="371"/>
-      <c r="AD42" s="371"/>
-      <c r="AE42" s="371"/>
+      <c r="AB42" s="376"/>
+      <c r="AC42" s="376"/>
+      <c r="AD42" s="376"/>
+      <c r="AE42" s="376"/>
       <c r="AF42" s="223"/>
       <c r="AG42" s="223"/>
-      <c r="AH42" s="371"/>
-      <c r="AI42" s="371"/>
-      <c r="AJ42" s="371"/>
-      <c r="AK42" s="371"/>
+      <c r="AH42" s="376"/>
+      <c r="AI42" s="376"/>
+      <c r="AJ42" s="376"/>
+      <c r="AK42" s="376"/>
       <c r="AM42" s="223"/>
-      <c r="AN42" s="371"/>
-      <c r="AO42" s="371"/>
-      <c r="AP42" s="371"/>
-      <c r="AQ42" s="371"/>
-      <c r="AR42" s="371"/>
+      <c r="AN42" s="376"/>
+      <c r="AO42" s="376"/>
+      <c r="AP42" s="376"/>
+      <c r="AQ42" s="376"/>
+      <c r="AR42" s="376"/>
       <c r="AT42" s="223"/>
       <c r="AU42" s="223"/>
       <c r="AV42" s="223"/>
@@ -17547,16 +17557,16 @@
       <c r="D43" s="249"/>
       <c r="E43" s="249"/>
       <c r="F43" s="249"/>
-      <c r="G43" s="262"/>
+      <c r="G43" s="261"/>
       <c r="H43" s="223"/>
       <c r="I43" s="223"/>
       <c r="J43" s="249"/>
-      <c r="K43" s="292"/>
+      <c r="K43" s="291"/>
       <c r="L43" s="249"/>
       <c r="M43" s="249"/>
       <c r="N43" s="223"/>
       <c r="O43" s="223"/>
-      <c r="P43" s="262"/>
+      <c r="P43" s="261"/>
       <c r="Q43" s="249"/>
       <c r="R43" s="249"/>
       <c r="S43" s="249"/>
@@ -17596,7 +17606,7 @@
         <v>256</v>
       </c>
       <c r="G44" s="254"/>
-      <c r="K44" s="286"/>
+      <c r="K44" s="285"/>
       <c r="P44" s="254"/>
     </row>
     <row r="45" spans="2:51" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17624,7 +17634,7 @@
       <c r="J45" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="293" t="s">
+      <c r="K45" s="292" t="s">
         <v>75</v>
       </c>
       <c r="M45" s="144" t="s">
@@ -17636,7 +17646,7 @@
       <c r="O45" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="P45" s="314" t="s">
+      <c r="P45" s="313" t="s">
         <v>75</v>
       </c>
       <c r="Q45" s="46"/>
@@ -17654,7 +17664,7 @@
       <c r="F46" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="263">
+      <c r="G46" s="262">
         <v>293.92962560000001</v>
       </c>
       <c r="H46" s="48" t="s">
@@ -17666,7 +17676,7 @@
       <c r="J46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K46" s="294">
+      <c r="K46" s="293">
         <v>250.70822399999997</v>
       </c>
       <c r="M46" s="118" t="s">
@@ -17678,7 +17688,7 @@
       <c r="O46" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P46" s="315">
+      <c r="P46" s="314">
         <f>K46</f>
         <v>250.70822399999997</v>
       </c>
@@ -17705,7 +17715,7 @@
       <c r="F47" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="264">
+      <c r="G47" s="263">
         <v>367.41203200000001</v>
       </c>
       <c r="H47" s="54" t="s">
@@ -17717,7 +17727,7 @@
       <c r="J47" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K47" s="295">
+      <c r="K47" s="294">
         <v>313.38527999999997</v>
       </c>
       <c r="M47" s="54" t="s">
@@ -17729,7 +17739,7 @@
       <c r="O47" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="P47" s="315">
+      <c r="P47" s="314">
         <f t="shared" ref="P47:P73" si="35">K47</f>
         <v>313.38527999999997</v>
       </c>
@@ -17755,7 +17765,7 @@
       <c r="F48" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="264">
+      <c r="G48" s="263">
         <v>480.46188800000004</v>
       </c>
       <c r="H48" s="54" t="s">
@@ -17767,7 +17777,7 @@
       <c r="J48" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K48" s="295">
+      <c r="K48" s="294">
         <v>409.81151999999997</v>
       </c>
       <c r="M48" s="54" t="s">
@@ -17779,7 +17789,7 @@
       <c r="O48" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="P48" s="315">
+      <c r="P48" s="314">
         <f t="shared" si="35"/>
         <v>409.81151999999997</v>
       </c>
@@ -17802,7 +17812,7 @@
       <c r="F49" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="264">
+      <c r="G49" s="263">
         <v>579.38051200000007</v>
       </c>
       <c r="H49" s="54" t="s">
@@ -17814,7 +17824,7 @@
       <c r="J49" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="295">
+      <c r="K49" s="294">
         <v>494.18447999999995</v>
       </c>
       <c r="M49" s="54" t="s">
@@ -17826,7 +17836,7 @@
       <c r="O49" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="P49" s="315">
+      <c r="P49" s="314">
         <f t="shared" si="35"/>
         <v>494.18447999999995</v>
       </c>
@@ -17849,7 +17859,7 @@
       <c r="F50" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="264">
+      <c r="G50" s="263">
         <v>664.16790400000002</v>
       </c>
       <c r="H50" s="54" t="s">
@@ -17861,7 +17871,7 @@
       <c r="J50" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="295">
+      <c r="K50" s="294">
         <v>566.50415999999996</v>
       </c>
       <c r="M50" s="54" t="s">
@@ -17873,7 +17883,7 @@
       <c r="O50" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="P50" s="315">
+      <c r="P50" s="314">
         <f t="shared" si="35"/>
         <v>566.50415999999996</v>
       </c>
@@ -17899,7 +17909,7 @@
       <c r="F51" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="264">
+      <c r="G51" s="263">
         <v>777.21776</v>
       </c>
       <c r="H51" s="54" t="s">
@@ -17911,7 +17921,7 @@
       <c r="J51" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K51" s="295">
+      <c r="K51" s="294">
         <v>662.93039999999996</v>
       </c>
       <c r="M51" s="54" t="s">
@@ -17923,7 +17933,7 @@
       <c r="O51" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="P51" s="315">
+      <c r="P51" s="314">
         <f t="shared" si="35"/>
         <v>662.93039999999996</v>
       </c>
@@ -17949,7 +17959,7 @@
       <c r="F52" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="265">
+      <c r="G52" s="264">
         <v>904.39884800000004</v>
       </c>
       <c r="H52" s="34" t="s">
@@ -17961,7 +17971,7 @@
       <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="296">
+      <c r="K52" s="295">
         <v>771.40991999999994</v>
       </c>
       <c r="M52" s="60" t="s">
@@ -17973,7 +17983,7 @@
       <c r="O52" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P52" s="316">
+      <c r="P52" s="315">
         <f t="shared" si="35"/>
         <v>771.40991999999994</v>
       </c>
@@ -17999,7 +18009,7 @@
       <c r="F53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G53" s="266">
+      <c r="G53" s="265">
         <v>385.043048</v>
       </c>
       <c r="H53" s="118" t="s">
@@ -18011,7 +18021,7 @@
       <c r="J53" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K53" s="297">
+      <c r="K53" s="296">
         <v>317.19791999999995</v>
       </c>
       <c r="M53" s="48" t="s">
@@ -18023,7 +18033,7 @@
       <c r="O53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="P53" s="317">
+      <c r="P53" s="316">
         <f t="shared" si="35"/>
         <v>317.19791999999995</v>
       </c>
@@ -18049,7 +18059,7 @@
       <c r="F54" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="264">
+      <c r="G54" s="263">
         <v>481.30381</v>
       </c>
       <c r="H54" s="54" t="s">
@@ -18061,7 +18071,7 @@
       <c r="J54" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K54" s="295">
+      <c r="K54" s="294">
         <v>396.49739999999997</v>
       </c>
       <c r="M54" s="54" t="s">
@@ -18073,7 +18083,7 @@
       <c r="O54" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="P54" s="315">
+      <c r="P54" s="314">
         <f t="shared" si="35"/>
         <v>396.49739999999997</v>
       </c>
@@ -18099,7 +18109,7 @@
       <c r="F55" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="264">
+      <c r="G55" s="263">
         <v>629.39729</v>
       </c>
       <c r="H55" s="54" t="s">
@@ -18111,7 +18121,7 @@
       <c r="J55" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K55" s="295">
+      <c r="K55" s="294">
         <v>518.49659999999994</v>
       </c>
       <c r="M55" s="54" t="s">
@@ -18123,7 +18133,7 @@
       <c r="O55" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="315">
+      <c r="P55" s="314">
         <f t="shared" si="35"/>
         <v>518.49659999999994</v>
       </c>
@@ -18149,7 +18159,7 @@
       <c r="F56" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="264">
+      <c r="G56" s="263">
         <v>758.97908500000005</v>
       </c>
       <c r="H56" s="54" t="s">
@@ -18161,7 +18171,7 @@
       <c r="J56" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="295">
+      <c r="K56" s="294">
         <v>625.24590000000001</v>
       </c>
       <c r="M56" s="54" t="s">
@@ -18173,7 +18183,7 @@
       <c r="O56" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="315">
+      <c r="P56" s="314">
         <f t="shared" si="35"/>
         <v>625.24590000000001</v>
       </c>
@@ -18196,7 +18206,7 @@
       <c r="F57" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="264">
+      <c r="G57" s="263">
         <v>870.04919500000005</v>
       </c>
       <c r="H57" s="54" t="s">
@@ -18208,7 +18218,7 @@
       <c r="J57" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K57" s="295">
+      <c r="K57" s="294">
         <v>716.74530000000004</v>
       </c>
       <c r="M57" s="54" t="s">
@@ -18220,7 +18230,7 @@
       <c r="O57" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="P57" s="315">
+      <c r="P57" s="314">
         <f t="shared" si="35"/>
         <v>716.74530000000004</v>
       </c>
@@ -18243,7 +18253,7 @@
       <c r="F58" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="264">
+      <c r="G58" s="263">
         <v>1018.1426750000001</v>
       </c>
       <c r="H58" s="54" t="s">
@@ -18255,7 +18265,7 @@
       <c r="J58" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K58" s="295">
+      <c r="K58" s="294">
         <v>838.74450000000002</v>
       </c>
       <c r="M58" s="54" t="s">
@@ -18267,7 +18277,7 @@
       <c r="O58" s="220" t="s">
         <v>88</v>
       </c>
-      <c r="P58" s="315">
+      <c r="P58" s="314">
         <f t="shared" si="35"/>
         <v>838.74450000000002</v>
       </c>
@@ -18290,7 +18300,7 @@
       <c r="F59" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="265">
+      <c r="G59" s="264">
         <v>1184.74784</v>
       </c>
       <c r="H59" s="34" t="s">
@@ -18302,7 +18312,7 @@
       <c r="J59" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="296">
+      <c r="K59" s="295">
         <v>975.99360000000001</v>
       </c>
       <c r="M59" s="34" t="s">
@@ -18314,7 +18324,7 @@
       <c r="O59" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="P59" s="318">
+      <c r="P59" s="317">
         <f t="shared" si="35"/>
         <v>975.99360000000001</v>
       </c>
@@ -18330,7 +18340,7 @@
       <c r="F60" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="266">
+      <c r="G60" s="265">
         <v>515.20508000000007</v>
       </c>
       <c r="H60" s="118" t="s">
@@ -18342,7 +18352,7 @@
       <c r="J60" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="297">
+      <c r="K60" s="296">
         <v>412.1832</v>
       </c>
       <c r="M60" s="118" t="s">
@@ -18354,7 +18364,7 @@
       <c r="O60" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P60" s="315">
+      <c r="P60" s="314">
         <f t="shared" si="35"/>
         <v>412.1832</v>
       </c>
@@ -18370,7 +18380,7 @@
       <c r="F61" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="264">
+      <c r="G61" s="263">
         <v>644.00635</v>
       </c>
       <c r="H61" s="54" t="s">
@@ -18382,7 +18392,7 @@
       <c r="J61" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="295">
+      <c r="K61" s="294">
         <v>515.22900000000004</v>
       </c>
       <c r="M61" s="54" t="s">
@@ -18394,7 +18404,7 @@
       <c r="O61" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="P61" s="315">
+      <c r="P61" s="314">
         <f t="shared" si="35"/>
         <v>515.22900000000004</v>
       </c>
@@ -18410,7 +18420,7 @@
       <c r="F62" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="264">
+      <c r="G62" s="263">
         <v>842.16215</v>
       </c>
       <c r="H62" s="54" t="s">
@@ -18422,7 +18432,7 @@
       <c r="J62" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K62" s="295">
+      <c r="K62" s="294">
         <v>673.76099999999997</v>
       </c>
       <c r="M62" s="54" t="s">
@@ -18434,7 +18444,7 @@
       <c r="O62" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="P62" s="315">
+      <c r="P62" s="314">
         <f t="shared" si="35"/>
         <v>673.76099999999997</v>
       </c>
@@ -18450,7 +18460,7 @@
       <c r="F63" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="264">
+      <c r="G63" s="263">
         <v>1015.5484750000001</v>
       </c>
       <c r="H63" s="54" t="s">
@@ -18462,7 +18472,7 @@
       <c r="J63" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K63" s="295">
+      <c r="K63" s="294">
         <v>812.47649999999999</v>
       </c>
       <c r="M63" s="54" t="s">
@@ -18474,7 +18484,7 @@
       <c r="O63" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="P63" s="315">
+      <c r="P63" s="314">
         <f t="shared" si="35"/>
         <v>812.47649999999999</v>
       </c>
@@ -18490,7 +18500,7 @@
       <c r="F64" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="264">
+      <c r="G64" s="263">
         <v>1164.1653249999999</v>
       </c>
       <c r="H64" s="54" t="s">
@@ -18502,7 +18512,7 @@
       <c r="J64" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K64" s="295">
+      <c r="K64" s="294">
         <v>931.37549999999999</v>
       </c>
       <c r="M64" s="54" t="s">
@@ -18514,7 +18524,7 @@
       <c r="O64" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="P64" s="315">
+      <c r="P64" s="314">
         <f t="shared" si="35"/>
         <v>931.37549999999999</v>
       </c>
@@ -18530,7 +18540,7 @@
       <c r="F65" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G65" s="264">
+      <c r="G65" s="263">
         <v>1362.3211249999999</v>
       </c>
       <c r="H65" s="54" t="s">
@@ -18542,7 +18552,7 @@
       <c r="J65" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K65" s="295">
+      <c r="K65" s="294">
         <v>1089.9075</v>
       </c>
       <c r="M65" s="54" t="s">
@@ -18554,7 +18564,7 @@
       <c r="O65" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="P65" s="315">
+      <c r="P65" s="314">
         <f t="shared" si="35"/>
         <v>1089.9075</v>
       </c>
@@ -18578,7 +18588,7 @@
       <c r="F66" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="265">
+      <c r="G66" s="264">
         <v>1585.2464000000002</v>
       </c>
       <c r="H66" s="34" t="s">
@@ -18590,7 +18600,7 @@
       <c r="J66" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K66" s="296">
+      <c r="K66" s="295">
         <v>1268.2559999999999</v>
       </c>
       <c r="M66" s="60" t="s">
@@ -18602,7 +18612,7 @@
       <c r="O66" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P66" s="316">
+      <c r="P66" s="315">
         <f t="shared" si="35"/>
         <v>1268.2559999999999</v>
       </c>
@@ -18626,7 +18636,7 @@
       <c r="F67" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G67" s="266">
+      <c r="G67" s="265">
         <v>688.75445600000012</v>
       </c>
       <c r="H67" s="118" t="s">
@@ -18638,7 +18648,7 @@
       <c r="J67" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K67" s="297">
+      <c r="K67" s="296">
         <v>538.83024</v>
       </c>
       <c r="M67" s="48" t="s">
@@ -18650,7 +18660,7 @@
       <c r="O67" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="P67" s="317">
+      <c r="P67" s="316">
         <f t="shared" si="35"/>
         <v>538.83024</v>
       </c>
@@ -18674,7 +18684,7 @@
       <c r="F68" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G68" s="264">
+      <c r="G68" s="263">
         <v>860.94307000000003</v>
       </c>
       <c r="H68" s="54" t="s">
@@ -18686,7 +18696,7 @@
       <c r="J68" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="295">
+      <c r="K68" s="294">
         <v>673.53779999999995</v>
       </c>
       <c r="M68" s="54" t="s">
@@ -18698,7 +18708,7 @@
       <c r="O68" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="P68" s="315">
+      <c r="P68" s="314">
         <f t="shared" si="35"/>
         <v>673.53779999999995</v>
       </c>
@@ -18722,7 +18732,7 @@
       <c r="F69" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G69" s="264">
+      <c r="G69" s="263">
         <v>1125.8486300000002</v>
       </c>
       <c r="H69" s="54" t="s">
@@ -18734,7 +18744,7 @@
       <c r="J69" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K69" s="295">
+      <c r="K69" s="294">
         <v>880.78020000000004</v>
       </c>
       <c r="M69" s="54" t="s">
@@ -18746,7 +18756,7 @@
       <c r="O69" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="P69" s="315">
+      <c r="P69" s="314">
         <f t="shared" si="35"/>
         <v>880.78020000000004</v>
       </c>
@@ -18770,7 +18780,7 @@
       <c r="F70" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="264">
+      <c r="G70" s="263">
         <v>1357.6409950000002</v>
       </c>
       <c r="H70" s="54" t="s">
@@ -18782,7 +18792,7 @@
       <c r="J70" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="295">
+      <c r="K70" s="294">
         <v>1062.1172999999999</v>
       </c>
       <c r="M70" s="54" t="s">
@@ -18794,7 +18804,7 @@
       <c r="O70" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="P70" s="315">
+      <c r="P70" s="314">
         <f t="shared" si="35"/>
         <v>1062.1172999999999</v>
       </c>
@@ -18818,7 +18828,7 @@
       <c r="F71" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="264">
+      <c r="G71" s="263">
         <v>1556.3201650000001</v>
       </c>
       <c r="H71" s="54" t="s">
@@ -18830,7 +18840,7 @@
       <c r="J71" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="295">
+      <c r="K71" s="294">
         <v>1217.5491</v>
       </c>
       <c r="M71" s="54" t="s">
@@ -18842,7 +18852,7 @@
       <c r="O71" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="P71" s="315">
+      <c r="P71" s="314">
         <f t="shared" si="35"/>
         <v>1217.5491</v>
       </c>
@@ -18866,7 +18876,7 @@
       <c r="F72" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G72" s="264">
+      <c r="G72" s="263">
         <v>1821.225725</v>
       </c>
       <c r="H72" s="54" t="s">
@@ -18878,7 +18888,7 @@
       <c r="J72" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K72" s="295">
+      <c r="K72" s="294">
         <v>1424.7915</v>
       </c>
       <c r="M72" s="54" t="s">
@@ -18890,7 +18900,7 @@
       <c r="O72" s="220" t="s">
         <v>88</v>
       </c>
-      <c r="P72" s="315">
+      <c r="P72" s="314">
         <f t="shared" si="35"/>
         <v>1424.7915</v>
       </c>
@@ -18914,7 +18924,7 @@
       <c r="F73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G73" s="265">
+      <c r="G73" s="264">
         <v>2119.2444799999998</v>
       </c>
       <c r="H73" s="34" t="s">
@@ -18926,7 +18936,7 @@
       <c r="J73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K73" s="296">
+      <c r="K73" s="295">
         <v>1657.9391999999998</v>
       </c>
       <c r="M73" s="34" t="s">
@@ -18938,7 +18948,7 @@
       <c r="O73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="P73" s="318">
+      <c r="P73" s="317">
         <f t="shared" si="35"/>
         <v>1657.9391999999998</v>
       </c>
@@ -18962,7 +18972,7 @@
       <c r="F74" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G74" s="266">
+      <c r="G74" s="265">
         <v>901.35244160000002</v>
       </c>
       <c r="H74" s="48" t="s">
@@ -18974,7 +18984,7 @@
       <c r="J74" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K74" s="294">
+      <c r="K74" s="293">
         <v>693.97286399999996</v>
       </c>
       <c r="M74" s="118" t="s">
@@ -18986,7 +18996,7 @@
       <c r="O74" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P74" s="317">
+      <c r="P74" s="316">
         <f>K74</f>
         <v>693.97286399999996</v>
       </c>
@@ -19012,7 +19022,7 @@
       <c r="F75" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="G75" s="264">
+      <c r="G75" s="263">
         <v>1126.6905519999998</v>
       </c>
       <c r="H75" s="54" t="s">
@@ -19024,7 +19034,7 @@
       <c r="J75" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="295">
+      <c r="K75" s="294">
         <v>867.46608000000003</v>
       </c>
       <c r="M75" s="54" t="s">
@@ -19036,7 +19046,7 @@
       <c r="O75" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="P75" s="315">
+      <c r="P75" s="314">
         <f t="shared" ref="P75:P80" si="36">K75</f>
         <v>867.46608000000003</v>
       </c>
@@ -19053,7 +19063,7 @@
       <c r="F76" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="G76" s="264">
+      <c r="G76" s="263">
         <v>1473.364568</v>
       </c>
       <c r="H76" s="54" t="s">
@@ -19065,7 +19075,7 @@
       <c r="J76" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="K76" s="295">
+      <c r="K76" s="294">
         <v>1134.3787199999999</v>
       </c>
       <c r="M76" s="54" t="s">
@@ -19077,7 +19087,7 @@
       <c r="O76" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="P76" s="315">
+      <c r="P76" s="314">
         <f t="shared" si="36"/>
         <v>1134.3787199999999</v>
       </c>
@@ -19094,7 +19104,7 @@
       <c r="F77" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="264">
+      <c r="G77" s="263">
         <v>1776.704332</v>
       </c>
       <c r="H77" s="54" t="s">
@@ -19106,7 +19116,7 @@
       <c r="J77" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="K77" s="295">
+      <c r="K77" s="294">
         <v>1367.9272800000001</v>
       </c>
       <c r="M77" s="54" t="s">
@@ -19118,7 +19128,7 @@
       <c r="O77" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="P77" s="315">
+      <c r="P77" s="314">
         <f t="shared" si="36"/>
         <v>1367.9272800000001</v>
       </c>
@@ -19133,7 +19143,7 @@
       <c r="F78" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="264">
+      <c r="G78" s="263">
         <v>2036.709844</v>
       </c>
       <c r="H78" s="54" t="s">
@@ -19145,7 +19155,7 @@
       <c r="J78" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="K78" s="295">
+      <c r="K78" s="294">
         <v>1568.11176</v>
       </c>
       <c r="M78" s="54" t="s">
@@ -19157,7 +19167,7 @@
       <c r="O78" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="P78" s="315">
+      <c r="P78" s="314">
         <f t="shared" si="36"/>
         <v>1568.11176</v>
       </c>
@@ -19172,7 +19182,7 @@
       <c r="F79" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="G79" s="264">
+      <c r="G79" s="263">
         <v>2383.3838599999999</v>
       </c>
       <c r="H79" s="54" t="s">
@@ -19184,7 +19194,7 @@
       <c r="J79" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="K79" s="295">
+      <c r="K79" s="294">
         <v>1835.0244</v>
       </c>
       <c r="M79" s="54" t="s">
@@ -19196,7 +19206,7 @@
       <c r="O79" s="220" t="s">
         <v>88</v>
       </c>
-      <c r="P79" s="315">
+      <c r="P79" s="314">
         <f t="shared" si="36"/>
         <v>1835.0244</v>
       </c>
@@ -19211,7 +19221,7 @@
       <c r="F80" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="267">
+      <c r="G80" s="266">
         <v>2773.392128</v>
       </c>
       <c r="H80" s="34" t="s">
@@ -19223,7 +19233,7 @@
       <c r="J80" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K80" s="296">
+      <c r="K80" s="295">
         <v>2135.3011200000001</v>
       </c>
       <c r="M80" s="34" t="s">
@@ -19235,57 +19245,57 @@
       <c r="O80" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="P80" s="318">
+      <c r="P80" s="317">
         <f t="shared" si="36"/>
         <v>2135.3011200000001</v>
       </c>
     </row>
     <row r="81" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="387" t="s">
+      <c r="D81" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="387"/>
-      <c r="F81" s="387"/>
-      <c r="G81" s="387"/>
-      <c r="H81" s="387"/>
-      <c r="I81" s="387"/>
-      <c r="J81" s="387"/>
-      <c r="K81" s="387"/>
-      <c r="M81" s="373" t="s">
+      <c r="E81" s="392"/>
+      <c r="F81" s="392"/>
+      <c r="G81" s="392"/>
+      <c r="H81" s="392"/>
+      <c r="I81" s="392"/>
+      <c r="J81" s="392"/>
+      <c r="K81" s="392"/>
+      <c r="M81" s="378" t="s">
         <v>179</v>
       </c>
-      <c r="N81" s="373"/>
-      <c r="O81" s="373"/>
-      <c r="P81" s="373"/>
+      <c r="N81" s="378"/>
+      <c r="O81" s="378"/>
+      <c r="P81" s="378"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D82" s="388"/>
-      <c r="E82" s="388"/>
-      <c r="F82" s="388"/>
-      <c r="G82" s="388"/>
-      <c r="H82" s="388"/>
-      <c r="I82" s="388"/>
-      <c r="J82" s="388"/>
-      <c r="K82" s="388"/>
-      <c r="M82" s="371" t="s">
+      <c r="D82" s="393"/>
+      <c r="E82" s="393"/>
+      <c r="F82" s="393"/>
+      <c r="G82" s="393"/>
+      <c r="H82" s="393"/>
+      <c r="I82" s="393"/>
+      <c r="J82" s="393"/>
+      <c r="K82" s="393"/>
+      <c r="M82" s="376" t="s">
         <v>93</v>
       </c>
-      <c r="N82" s="371"/>
-      <c r="O82" s="371"/>
-      <c r="P82" s="371"/>
+      <c r="N82" s="376"/>
+      <c r="O82" s="376"/>
+      <c r="P82" s="376"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M83" s="371"/>
-      <c r="N83" s="371"/>
-      <c r="O83" s="371"/>
-      <c r="P83" s="371"/>
+      <c r="M83" s="376"/>
+      <c r="N83" s="376"/>
+      <c r="O83" s="376"/>
+      <c r="P83" s="376"/>
     </row>
     <row r="84" spans="2:20" s="179" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="180" t="s">
         <v>238</v>
       </c>
       <c r="G84" s="254"/>
-      <c r="K84" s="286"/>
+      <c r="K84" s="285"/>
       <c r="L84" s="179" t="s">
         <v>248</v>
       </c>
@@ -19343,10 +19353,10 @@
       <c r="O86" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="S86" s="345" t="s">
+      <c r="S86" s="344" t="s">
         <v>268</v>
       </c>
-      <c r="T86" s="346" t="s">
+      <c r="T86" s="345" t="s">
         <v>269</v>
       </c>
     </row>
@@ -19604,7 +19614,7 @@
         <f>[2]CEI!$H$7</f>
         <v>885.3075</v>
       </c>
-      <c r="K92" s="298" t="s">
+      <c r="K92" s="297" t="s">
         <v>249</v>
       </c>
       <c r="L92" s="75" t="s">
@@ -19654,7 +19664,7 @@
         <f>[2]CEI!$I$7</f>
         <v>951.55500000000006</v>
       </c>
-      <c r="K93" s="298">
+      <c r="K93" s="297">
         <v>30</v>
       </c>
       <c r="L93" s="77" t="s">
@@ -19692,12 +19702,12 @@
         <f>[2]CEA!$D$21</f>
         <v>600.4777107007576</v>
       </c>
-      <c r="H94" s="385" t="s">
+      <c r="H94" s="390" t="s">
         <v>239</v>
       </c>
-      <c r="I94" s="385"/>
-      <c r="J94" s="385"/>
-      <c r="K94" s="298">
+      <c r="I94" s="390"/>
+      <c r="J94" s="390"/>
+      <c r="K94" s="297">
         <v>150</v>
       </c>
       <c r="L94" s="73" t="s">
@@ -19736,9 +19746,9 @@
         <f>[2]CEA!$G$21</f>
         <v>625.34956854043412</v>
       </c>
-      <c r="H95" s="386"/>
-      <c r="I95" s="386"/>
-      <c r="J95" s="386"/>
+      <c r="H95" s="391"/>
+      <c r="I95" s="391"/>
+      <c r="J95" s="391"/>
       <c r="L95" s="75" t="s">
         <v>80</v>
       </c>
@@ -19772,9 +19782,9 @@
         <f>[2]CEA!$J$21</f>
         <v>688.94443991742742</v>
       </c>
-      <c r="H96" s="386"/>
-      <c r="I96" s="386"/>
-      <c r="J96" s="386"/>
+      <c r="H96" s="391"/>
+      <c r="I96" s="391"/>
+      <c r="J96" s="391"/>
       <c r="L96" s="75" t="s">
         <v>82</v>
       </c>
@@ -19927,14 +19937,14 @@
         <f>[2]CEA!$E$21</f>
         <v>1801.433132102273</v>
       </c>
-      <c r="K101" s="299"/>
-      <c r="L101" s="381" t="s">
+      <c r="K101" s="298"/>
+      <c r="L101" s="386" t="s">
         <v>239</v>
       </c>
-      <c r="M101" s="381"/>
-      <c r="N101" s="381"/>
-      <c r="O101" s="381"/>
-      <c r="P101" s="319"/>
+      <c r="M101" s="386"/>
+      <c r="N101" s="386"/>
+      <c r="O101" s="386"/>
+      <c r="P101" s="318"/>
     </row>
     <row r="102" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D102" s="75" t="s">
@@ -19948,12 +19958,12 @@
         <f>[2]CEA!$H$21</f>
         <v>1945.1057131901846</v>
       </c>
-      <c r="K102" s="299"/>
-      <c r="L102" s="382"/>
-      <c r="M102" s="382"/>
-      <c r="N102" s="382"/>
-      <c r="O102" s="382"/>
-      <c r="P102" s="319"/>
+      <c r="K102" s="298"/>
+      <c r="L102" s="387"/>
+      <c r="M102" s="387"/>
+      <c r="N102" s="387"/>
+      <c r="O102" s="387"/>
+      <c r="P102" s="318"/>
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D103" s="75" t="s">
@@ -19967,12 +19977,12 @@
         <f>[2]CEA!$K$21</f>
         <v>2327.8431075624085</v>
       </c>
-      <c r="K103" s="299"/>
-      <c r="L103" s="382"/>
-      <c r="M103" s="382"/>
-      <c r="N103" s="382"/>
-      <c r="O103" s="382"/>
-      <c r="P103" s="319"/>
+      <c r="K103" s="298"/>
+      <c r="L103" s="387"/>
+      <c r="M103" s="387"/>
+      <c r="N103" s="387"/>
+      <c r="O103" s="387"/>
+      <c r="P103" s="318"/>
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D104" s="75" t="s">
@@ -19986,12 +19996,12 @@
         <f>[2]CEA!$N$21</f>
         <v>2830.8234933035715</v>
       </c>
-      <c r="K104" s="299"/>
+      <c r="K104" s="298"/>
       <c r="L104" s="50"/>
       <c r="M104" s="50"/>
       <c r="N104" s="229"/>
       <c r="O104" s="139"/>
-      <c r="P104" s="319"/>
+      <c r="P104" s="318"/>
     </row>
     <row r="105" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D105" s="75" t="s">
@@ -20005,12 +20015,12 @@
         <f>[2]CEA!$Q$21</f>
         <v>3644.2785201149431</v>
       </c>
-      <c r="K105" s="299"/>
+      <c r="K105" s="298"/>
       <c r="L105" s="50"/>
       <c r="M105" s="50"/>
       <c r="N105" s="229"/>
       <c r="O105" s="139"/>
-      <c r="P105" s="319"/>
+      <c r="P105" s="318"/>
     </row>
     <row r="106" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D106" s="75" t="s">
@@ -20024,12 +20034,12 @@
         <f>[2]CEA!$T$21</f>
         <v>5197.5775614754102</v>
       </c>
-      <c r="K106" s="299"/>
+      <c r="K106" s="298"/>
       <c r="L106" s="50"/>
       <c r="M106" s="50"/>
       <c r="N106" s="229"/>
       <c r="O106" s="139"/>
-      <c r="P106" s="319"/>
+      <c r="P106" s="318"/>
     </row>
     <row r="107" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="81" t="s">
@@ -20043,69 +20053,69 @@
         <f>[2]CEA!$W$21</f>
         <v>8807.006423611112</v>
       </c>
-      <c r="K107" s="299"/>
+      <c r="K107" s="298"/>
       <c r="L107" s="50"/>
       <c r="M107" s="50"/>
       <c r="N107" s="229"/>
       <c r="O107" s="139"/>
-      <c r="P107" s="319"/>
+      <c r="P107" s="318"/>
     </row>
     <row r="108" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="391" t="s">
+      <c r="D108" s="396" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="391"/>
-      <c r="F108" s="391"/>
-      <c r="G108" s="268"/>
+      <c r="E108" s="396"/>
+      <c r="F108" s="396"/>
+      <c r="G108" s="267"/>
       <c r="H108" s="228"/>
-      <c r="K108" s="299"/>
+      <c r="K108" s="298"/>
       <c r="L108" s="139"/>
       <c r="M108" s="139"/>
       <c r="N108" s="139"/>
       <c r="O108" s="139"/>
-      <c r="P108" s="319"/>
+      <c r="P108" s="318"/>
     </row>
     <row r="109" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D109" s="392"/>
-      <c r="E109" s="392"/>
-      <c r="F109" s="392"/>
-      <c r="G109" s="268"/>
+      <c r="D109" s="397"/>
+      <c r="E109" s="397"/>
+      <c r="F109" s="397"/>
+      <c r="G109" s="267"/>
       <c r="H109" s="228"/>
-      <c r="K109" s="299"/>
+      <c r="K109" s="298"/>
       <c r="L109" s="139"/>
       <c r="M109" s="139"/>
       <c r="N109" s="139"/>
       <c r="O109" s="139"/>
-      <c r="P109" s="319"/>
+      <c r="P109" s="318"/>
     </row>
     <row r="110" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D110" s="392"/>
-      <c r="E110" s="392"/>
-      <c r="F110" s="392"/>
-      <c r="K110" s="299"/>
+      <c r="D110" s="397"/>
+      <c r="E110" s="397"/>
+      <c r="F110" s="397"/>
+      <c r="K110" s="298"/>
       <c r="L110" s="139"/>
       <c r="M110" s="139"/>
       <c r="N110" s="139"/>
       <c r="O110" s="139"/>
-      <c r="P110" s="319"/>
+      <c r="P110" s="318"/>
     </row>
     <row r="111" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
       <c r="F111" s="177"/>
-      <c r="K111" s="299"/>
+      <c r="K111" s="298"/>
       <c r="L111" s="139"/>
       <c r="M111" s="139"/>
       <c r="N111" s="139"/>
       <c r="O111" s="139"/>
-      <c r="P111" s="319"/>
+      <c r="P111" s="318"/>
     </row>
     <row r="112" spans="4:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="180" t="s">
         <v>71</v>
       </c>
       <c r="G112" s="254"/>
-      <c r="K112" s="286"/>
+      <c r="K112" s="285"/>
       <c r="P112" s="254"/>
     </row>
     <row r="113" spans="4:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20118,13 +20128,13 @@
       <c r="F113" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H113" s="378" t="s">
+      <c r="H113" s="383" t="s">
         <v>116</v>
       </c>
-      <c r="I113" s="379"/>
-      <c r="J113" s="379"/>
-      <c r="K113" s="379"/>
-      <c r="L113" s="380"/>
+      <c r="I113" s="384"/>
+      <c r="J113" s="384"/>
+      <c r="K113" s="384"/>
+      <c r="L113" s="385"/>
       <c r="N113" s="47" t="s">
         <v>11</v>
       </c>
@@ -20151,7 +20161,7 @@
       <c r="J114" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="K114" s="300" t="s">
+      <c r="K114" s="299" t="s">
         <v>120</v>
       </c>
       <c r="L114" s="111" t="s">
@@ -20184,7 +20194,7 @@
       <c r="J115" s="100">
         <v>0.21</v>
       </c>
-      <c r="K115" s="301">
+      <c r="K115" s="300">
         <v>0</v>
       </c>
       <c r="L115" s="112">
@@ -20597,28 +20607,28 @@
       </c>
     </row>
     <row r="149" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D149" s="387" t="s">
+      <c r="D149" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E149" s="387"/>
-      <c r="F149" s="387"/>
+      <c r="E149" s="392"/>
+      <c r="F149" s="392"/>
     </row>
     <row r="150" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="388"/>
-      <c r="E150" s="388"/>
-      <c r="F150" s="388"/>
+      <c r="D150" s="393"/>
+      <c r="E150" s="393"/>
+      <c r="F150" s="393"/>
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="388"/>
-      <c r="E151" s="388"/>
-      <c r="F151" s="388"/>
+      <c r="D151" s="393"/>
+      <c r="E151" s="393"/>
+      <c r="F151" s="393"/>
     </row>
     <row r="153" spans="4:16" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="180" t="s">
         <v>72</v>
       </c>
       <c r="G153" s="254"/>
-      <c r="K153" s="286"/>
+      <c r="K153" s="285"/>
       <c r="P153" s="254"/>
     </row>
     <row r="154" spans="4:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20631,11 +20641,11 @@
       <c r="F154" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H154" s="393" t="s">
+      <c r="H154" s="398" t="s">
         <v>251</v>
       </c>
-      <c r="I154" s="394"/>
-      <c r="J154" s="395"/>
+      <c r="I154" s="399"/>
+      <c r="J154" s="400"/>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D155" s="73" t="s">
@@ -20926,21 +20936,21 @@
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="387" t="s">
+      <c r="D176" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E176" s="387"/>
-      <c r="F176" s="387"/>
+      <c r="E176" s="392"/>
+      <c r="F176" s="392"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D177" s="388"/>
-      <c r="E177" s="388"/>
-      <c r="F177" s="388"/>
+      <c r="D177" s="393"/>
+      <c r="E177" s="393"/>
+      <c r="F177" s="393"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D178" s="388"/>
-      <c r="E178" s="388"/>
-      <c r="F178" s="388"/>
+      <c r="D178" s="393"/>
+      <c r="E178" s="393"/>
+      <c r="F178" s="393"/>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="50"/>
@@ -20955,7 +20965,7 @@
       <c r="J180" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="K180" s="286"/>
+      <c r="K180" s="285"/>
       <c r="P180" s="254"/>
     </row>
     <row r="181" spans="2:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20968,7 +20978,7 @@
       <c r="F181" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G181" s="269" t="s">
+      <c r="G181" s="268" t="s">
         <v>99</v>
       </c>
       <c r="H181" s="44" t="s">
@@ -20977,7 +20987,7 @@
       <c r="J181" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="K181" s="302" t="s">
+      <c r="K181" s="301" t="s">
         <v>124</v>
       </c>
       <c r="L181" s="88" t="s">
@@ -20991,7 +21001,7 @@
       </c>
     </row>
     <row r="182" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="370" t="s">
+      <c r="B182" s="375" t="s">
         <v>123</v>
       </c>
       <c r="D182" s="73" t="s">
@@ -21003,7 +21013,7 @@
       <c r="F182" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G182" s="270">
+      <c r="G182" s="269">
         <v>8</v>
       </c>
       <c r="H182" s="184">
@@ -21012,7 +21022,7 @@
       <c r="J182" s="90">
         <v>0.3</v>
       </c>
-      <c r="K182" s="303">
+      <c r="K182" s="302">
         <v>0.38</v>
       </c>
       <c r="L182" s="91">
@@ -21026,7 +21036,7 @@
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="370"/>
+      <c r="B183" s="375"/>
       <c r="D183" s="75" t="s">
         <v>100</v>
       </c>
@@ -21044,7 +21054,7 @@
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="370"/>
+      <c r="B184" s="375"/>
       <c r="D184" s="75" t="s">
         <v>100</v>
       </c>
@@ -21062,7 +21072,7 @@
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="370"/>
+      <c r="B185" s="375"/>
       <c r="D185" s="75" t="s">
         <v>100</v>
       </c>
@@ -21078,14 +21088,14 @@
       <c r="H185" s="182">
         <v>185.37931034482693</v>
       </c>
-      <c r="J185" s="376"/>
-      <c r="K185" s="377"/>
+      <c r="J185" s="381"/>
+      <c r="K185" s="382"/>
       <c r="L185" s="117" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="370"/>
+      <c r="B186" s="375"/>
       <c r="D186" s="75" t="s">
         <v>100</v>
       </c>
@@ -21101,17 +21111,17 @@
       <c r="H186" s="182">
         <v>209.4545454545447</v>
       </c>
-      <c r="J186" s="389" t="s">
+      <c r="J186" s="394" t="s">
         <v>112</v>
       </c>
-      <c r="K186" s="390"/>
+      <c r="K186" s="395"/>
       <c r="L186" s="116">
         <f>H182*$J$182+H189*$K$182+H196*$L$182+H203*$M$182+H210*$N$182</f>
         <v>230.39999999999918</v>
       </c>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="370"/>
+      <c r="B187" s="375"/>
       <c r="D187" s="75" t="s">
         <v>100</v>
       </c>
@@ -21127,17 +21137,17 @@
       <c r="H187" s="182">
         <v>240.71641791044686</v>
       </c>
-      <c r="J187" s="389" t="s">
+      <c r="J187" s="394" t="s">
         <v>113</v>
       </c>
-      <c r="K187" s="390"/>
+      <c r="K187" s="395"/>
       <c r="L187" s="116">
         <f t="shared" ref="L187:L192" si="44">H183*$J$182+H190*$K$182+H197*$L$182+H204*$M$182+H211*$N$182</f>
         <v>249.77943925233555</v>
       </c>
     </row>
     <row r="188" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="370"/>
+      <c r="B188" s="375"/>
       <c r="D188" s="77" t="s">
         <v>100</v>
       </c>
@@ -21147,23 +21157,23 @@
       <c r="F188" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G188" s="271">
+      <c r="G188" s="270">
         <v>8</v>
       </c>
       <c r="H188" s="183">
         <v>260.1290322580636</v>
       </c>
-      <c r="J188" s="389" t="s">
+      <c r="J188" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="K188" s="390"/>
+      <c r="K188" s="395"/>
       <c r="L188" s="116">
         <f t="shared" si="44"/>
         <v>275.52989690721552</v>
       </c>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="370" t="s">
+      <c r="B189" s="375" t="s">
         <v>124</v>
       </c>
       <c r="D189" s="73" t="s">
@@ -21175,23 +21185,23 @@
       <c r="F189" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G189" s="270">
+      <c r="G189" s="269">
         <v>8</v>
       </c>
       <c r="H189" s="184">
         <v>198.6206896551717</v>
       </c>
-      <c r="J189" s="389" t="s">
+      <c r="J189" s="394" t="s">
         <v>129</v>
       </c>
-      <c r="K189" s="390"/>
+      <c r="K189" s="395"/>
       <c r="L189" s="116">
         <f t="shared" si="44"/>
         <v>307.19999999999891</v>
       </c>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="370"/>
+      <c r="B190" s="375"/>
       <c r="D190" s="75" t="s">
         <v>100</v>
       </c>
@@ -21207,17 +21217,17 @@
       <c r="H190" s="182">
         <v>215.32710280373755</v>
       </c>
-      <c r="J190" s="389" t="s">
+      <c r="J190" s="394" t="s">
         <v>130</v>
       </c>
-      <c r="K190" s="390"/>
+      <c r="K190" s="395"/>
       <c r="L190" s="116">
         <f t="shared" si="44"/>
         <v>347.0961038961027</v>
       </c>
     </row>
     <row r="191" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="370"/>
+      <c r="B191" s="375"/>
       <c r="D191" s="75" t="s">
         <v>100</v>
       </c>
@@ -21233,17 +21243,17 @@
       <c r="H191" s="182">
         <v>237.52577319587542</v>
       </c>
-      <c r="J191" s="389" t="s">
+      <c r="J191" s="394" t="s">
         <v>131</v>
       </c>
-      <c r="K191" s="390"/>
+      <c r="K191" s="395"/>
       <c r="L191" s="116">
         <f t="shared" si="44"/>
         <v>398.90149253731192</v>
       </c>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="370"/>
+      <c r="B192" s="375"/>
       <c r="D192" s="75" t="s">
         <v>100</v>
       </c>
@@ -21259,17 +21269,17 @@
       <c r="H192" s="182">
         <v>264.8275862068956</v>
       </c>
-      <c r="J192" s="389" t="s">
+      <c r="J192" s="394" t="s">
         <v>132</v>
       </c>
-      <c r="K192" s="390"/>
+      <c r="K192" s="395"/>
       <c r="L192" s="116">
         <f t="shared" si="44"/>
         <v>431.07096774193394</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="370"/>
+      <c r="B193" s="375"/>
       <c r="D193" s="75" t="s">
         <v>100</v>
       </c>
@@ -21287,7 +21297,7 @@
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="370"/>
+      <c r="B194" s="375"/>
       <c r="D194" s="75" t="s">
         <v>100</v>
       </c>
@@ -21305,7 +21315,7 @@
       </c>
     </row>
     <row r="195" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="370"/>
+      <c r="B195" s="375"/>
       <c r="D195" s="81" t="s">
         <v>100</v>
       </c>
@@ -21315,7 +21325,7 @@
       <c r="F195" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G195" s="272">
+      <c r="G195" s="271">
         <v>8</v>
       </c>
       <c r="H195" s="185">
@@ -21323,7 +21333,7 @@
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="370" t="s">
+      <c r="B196" s="375" t="s">
         <v>125</v>
       </c>
       <c r="D196" s="83" t="s">
@@ -21335,7 +21345,7 @@
       <c r="F196" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G196" s="273">
+      <c r="G196" s="272">
         <v>8</v>
       </c>
       <c r="H196" s="181">
@@ -21343,7 +21353,7 @@
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="370"/>
+      <c r="B197" s="375"/>
       <c r="D197" s="75" t="s">
         <v>100</v>
       </c>
@@ -21361,7 +21371,7 @@
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="370"/>
+      <c r="B198" s="375"/>
       <c r="D198" s="75" t="s">
         <v>100</v>
       </c>
@@ -21379,7 +21389,7 @@
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="370"/>
+      <c r="B199" s="375"/>
       <c r="D199" s="75" t="s">
         <v>100</v>
       </c>
@@ -21397,7 +21407,7 @@
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="370"/>
+      <c r="B200" s="375"/>
       <c r="D200" s="75" t="s">
         <v>100</v>
       </c>
@@ -21415,7 +21425,7 @@
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="370"/>
+      <c r="B201" s="375"/>
       <c r="D201" s="75" t="s">
         <v>100</v>
       </c>
@@ -21433,7 +21443,7 @@
       </c>
     </row>
     <row r="202" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="370"/>
+      <c r="B202" s="375"/>
       <c r="D202" s="81" t="s">
         <v>100</v>
       </c>
@@ -21443,7 +21453,7 @@
       <c r="F202" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G202" s="272">
+      <c r="G202" s="271">
         <v>8</v>
       </c>
       <c r="H202" s="185">
@@ -21451,7 +21461,7 @@
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="370" t="s">
+      <c r="B203" s="375" t="s">
         <v>126</v>
       </c>
       <c r="D203" s="83" t="s">
@@ -21463,7 +21473,7 @@
       <c r="F203" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G203" s="273">
+      <c r="G203" s="272">
         <v>8</v>
       </c>
       <c r="H203" s="181">
@@ -21471,7 +21481,7 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="370"/>
+      <c r="B204" s="375"/>
       <c r="D204" s="75" t="s">
         <v>100</v>
       </c>
@@ -21489,7 +21499,7 @@
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="370"/>
+      <c r="B205" s="375"/>
       <c r="D205" s="75" t="s">
         <v>100</v>
       </c>
@@ -21507,7 +21517,7 @@
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="370"/>
+      <c r="B206" s="375"/>
       <c r="D206" s="75" t="s">
         <v>100</v>
       </c>
@@ -21525,7 +21535,7 @@
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="370"/>
+      <c r="B207" s="375"/>
       <c r="D207" s="75" t="s">
         <v>100</v>
       </c>
@@ -21543,7 +21553,7 @@
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="370"/>
+      <c r="B208" s="375"/>
       <c r="D208" s="75" t="s">
         <v>100</v>
       </c>
@@ -21561,7 +21571,7 @@
       </c>
     </row>
     <row r="209" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="370"/>
+      <c r="B209" s="375"/>
       <c r="D209" s="77" t="s">
         <v>100</v>
       </c>
@@ -21571,7 +21581,7 @@
       <c r="F209" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G209" s="271">
+      <c r="G209" s="270">
         <v>8</v>
       </c>
       <c r="H209" s="183">
@@ -21579,7 +21589,7 @@
       </c>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B210" s="370" t="s">
+      <c r="B210" s="375" t="s">
         <v>127</v>
       </c>
       <c r="D210" s="73" t="s">
@@ -21591,7 +21601,7 @@
       <c r="F210" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G210" s="270">
+      <c r="G210" s="269">
         <v>8</v>
       </c>
       <c r="H210" s="184">
@@ -21599,7 +21609,7 @@
       </c>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B211" s="370"/>
+      <c r="B211" s="375"/>
       <c r="D211" s="75" t="s">
         <v>100</v>
       </c>
@@ -21617,7 +21627,7 @@
       </c>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B212" s="370"/>
+      <c r="B212" s="375"/>
       <c r="D212" s="75" t="s">
         <v>100</v>
       </c>
@@ -21635,7 +21645,7 @@
       </c>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="370"/>
+      <c r="B213" s="375"/>
       <c r="D213" s="75" t="s">
         <v>100</v>
       </c>
@@ -21653,7 +21663,7 @@
       </c>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B214" s="370"/>
+      <c r="B214" s="375"/>
       <c r="D214" s="75" t="s">
         <v>100</v>
       </c>
@@ -21671,7 +21681,7 @@
       </c>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="370"/>
+      <c r="B215" s="375"/>
       <c r="D215" s="75" t="s">
         <v>100</v>
       </c>
@@ -21689,7 +21699,7 @@
       </c>
     </row>
     <row r="216" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="370"/>
+      <c r="B216" s="375"/>
       <c r="D216" s="81" t="s">
         <v>100</v>
       </c>
@@ -21699,7 +21709,7 @@
       <c r="F216" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G216" s="272">
+      <c r="G216" s="271">
         <v>8</v>
       </c>
       <c r="H216" s="185">
@@ -21707,27 +21717,27 @@
       </c>
     </row>
     <row r="217" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="387" t="s">
+      <c r="D217" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E217" s="387"/>
-      <c r="F217" s="387"/>
-      <c r="G217" s="387"/>
-      <c r="H217" s="387"/>
+      <c r="E217" s="392"/>
+      <c r="F217" s="392"/>
+      <c r="G217" s="392"/>
+      <c r="H217" s="392"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D218" s="388"/>
-      <c r="E218" s="388"/>
-      <c r="F218" s="388"/>
-      <c r="G218" s="388"/>
-      <c r="H218" s="388"/>
+      <c r="D218" s="393"/>
+      <c r="E218" s="393"/>
+      <c r="F218" s="393"/>
+      <c r="G218" s="393"/>
+      <c r="H218" s="393"/>
     </row>
     <row r="220" spans="2:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D220" s="180" t="s">
         <v>32</v>
       </c>
       <c r="G220" s="254"/>
-      <c r="K220" s="286"/>
+      <c r="K220" s="285"/>
       <c r="P220" s="254"/>
     </row>
     <row r="221" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21740,7 +21750,7 @@
       <c r="F221" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G221" s="269" t="s">
+      <c r="G221" s="268" t="s">
         <v>104</v>
       </c>
       <c r="H221" s="44" t="s">
@@ -21749,15 +21759,15 @@
       <c r="I221" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K221" s="378" t="s">
+      <c r="K221" s="383" t="s">
         <v>105</v>
       </c>
-      <c r="L221" s="379"/>
-      <c r="M221" s="379"/>
-      <c r="N221" s="379"/>
-      <c r="O221" s="380"/>
-      <c r="R221" s="376"/>
-      <c r="S221" s="377"/>
+      <c r="L221" s="384"/>
+      <c r="M221" s="384"/>
+      <c r="N221" s="384"/>
+      <c r="O221" s="385"/>
+      <c r="R221" s="381"/>
+      <c r="S221" s="382"/>
       <c r="T221" s="103" t="s">
         <v>111</v>
       </c>
@@ -21772,7 +21782,7 @@
       <c r="F222" s="49">
         <v>0.746</v>
       </c>
-      <c r="G222" s="274">
+      <c r="G222" s="273">
         <v>0.85499999999999998</v>
       </c>
       <c r="H222" s="93">
@@ -21781,7 +21791,7 @@
       <c r="I222" s="200">
         <v>2547.7426900584796</v>
       </c>
-      <c r="K222" s="304" t="s">
+      <c r="K222" s="303" t="s">
         <v>106</v>
       </c>
       <c r="L222" s="51" t="s">
@@ -21796,10 +21806,10 @@
       <c r="O222" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R222" s="374" t="s">
+      <c r="R222" s="379" t="s">
         <v>112</v>
       </c>
-      <c r="S222" s="375"/>
+      <c r="S222" s="380"/>
       <c r="T222" s="104">
         <f>I222*$K$223+I225*$L$223+I228*$M$223+I231*$N$223+I234*$O$223</f>
         <v>7997.2788862459374</v>
@@ -21815,7 +21825,7 @@
       <c r="F223" s="175">
         <v>0.746</v>
       </c>
-      <c r="G223" s="275">
+      <c r="G223" s="274">
         <v>0.82499999999999996</v>
       </c>
       <c r="H223" s="94">
@@ -21824,7 +21834,7 @@
       <c r="I223" s="201">
         <v>2640.3878787878789</v>
       </c>
-      <c r="K223" s="305">
+      <c r="K223" s="304">
         <v>0.33</v>
       </c>
       <c r="L223" s="100">
@@ -21839,10 +21849,10 @@
       <c r="O223" s="102">
         <v>0.02</v>
       </c>
-      <c r="R223" s="374" t="s">
+      <c r="R223" s="379" t="s">
         <v>113</v>
       </c>
-      <c r="S223" s="375"/>
+      <c r="S223" s="380"/>
       <c r="T223" s="104">
         <f>I223*$K$223+I226*$L$223+I229*$M$223+I232*$N$223+I235*$O$223</f>
         <v>8194.1635171830039</v>
@@ -21858,7 +21868,7 @@
       <c r="F224" s="61">
         <v>0.746</v>
       </c>
-      <c r="G224" s="276">
+      <c r="G224" s="275">
         <v>0.78</v>
       </c>
       <c r="H224" s="95">
@@ -21867,10 +21877,10 @@
       <c r="I224" s="202">
         <v>2792.7179487179487</v>
       </c>
-      <c r="R224" s="374" t="s">
+      <c r="R224" s="379" t="s">
         <v>114</v>
       </c>
-      <c r="S224" s="375"/>
+      <c r="S224" s="380"/>
       <c r="T224" s="104">
         <f>I224*$K$223+I227*$L$223+I230*$M$223+I233*$N$223+I236*$O$223</f>
         <v>8444.2043794558067</v>
@@ -21886,7 +21896,7 @@
       <c r="F225" s="49">
         <v>1.492</v>
       </c>
-      <c r="G225" s="274">
+      <c r="G225" s="273">
         <v>0.86499999999999999</v>
       </c>
       <c r="H225" s="93">
@@ -21906,7 +21916,7 @@
       <c r="F226" s="175">
         <v>1.492</v>
       </c>
-      <c r="G226" s="275">
+      <c r="G226" s="274">
         <v>0.84</v>
       </c>
       <c r="H226" s="94">
@@ -21926,7 +21936,7 @@
       <c r="F227" s="71">
         <v>1.492</v>
       </c>
-      <c r="G227" s="277">
+      <c r="G227" s="276">
         <v>0.81499999999999995</v>
       </c>
       <c r="H227" s="96">
@@ -21946,7 +21956,7 @@
       <c r="F228" s="85">
         <v>3.73</v>
       </c>
-      <c r="G228" s="278">
+      <c r="G228" s="277">
         <v>0.89500000000000002</v>
       </c>
       <c r="H228" s="97">
@@ -21966,7 +21976,7 @@
       <c r="F229" s="175">
         <v>3.73</v>
       </c>
-      <c r="G229" s="275">
+      <c r="G229" s="274">
         <v>0.875</v>
       </c>
       <c r="H229" s="94">
@@ -21986,7 +21996,7 @@
       <c r="F230" s="61">
         <v>3.73</v>
       </c>
-      <c r="G230" s="276">
+      <c r="G230" s="275">
         <v>0.85</v>
       </c>
       <c r="H230" s="95">
@@ -22006,7 +22016,7 @@
       <c r="F231" s="49">
         <v>7.46</v>
       </c>
-      <c r="G231" s="274">
+      <c r="G231" s="273">
         <v>0.91700000000000004</v>
       </c>
       <c r="H231" s="93">
@@ -22026,7 +22036,7 @@
       <c r="F232" s="175">
         <v>7.46</v>
       </c>
-      <c r="G232" s="275">
+      <c r="G232" s="274">
         <v>0.89500000000000002</v>
       </c>
       <c r="H232" s="94">
@@ -22046,7 +22056,7 @@
       <c r="F233" s="71">
         <v>7.46</v>
       </c>
-      <c r="G233" s="277">
+      <c r="G233" s="276">
         <v>0.875</v>
       </c>
       <c r="H233" s="96">
@@ -22066,7 +22076,7 @@
       <c r="F234" s="85">
         <v>18.649999999999999</v>
       </c>
-      <c r="G234" s="278">
+      <c r="G234" s="277">
         <v>0.93600000000000005</v>
       </c>
       <c r="H234" s="97">
@@ -22086,7 +22096,7 @@
       <c r="F235" s="175">
         <v>18.649999999999999</v>
       </c>
-      <c r="G235" s="275">
+      <c r="G235" s="274">
         <v>0.92400000000000004</v>
       </c>
       <c r="H235" s="94">
@@ -22106,7 +22116,7 @@
       <c r="F236" s="71">
         <v>18.649999999999999</v>
       </c>
-      <c r="G236" s="277">
+      <c r="G236" s="276">
         <v>0.90500000000000003</v>
       </c>
       <c r="H236" s="96">
@@ -22127,7 +22137,7 @@
         <f>E237*0.746</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G237" s="279">
+      <c r="G237" s="278">
         <f>G234</f>
         <v>0.93600000000000005</v>
       </c>
@@ -22150,7 +22160,7 @@
         <f>+F237</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G238" s="280">
+      <c r="G238" s="279">
         <f>G235</f>
         <v>0.92400000000000004</v>
       </c>
@@ -22173,7 +22183,7 @@
         <f>+F238</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G239" s="281">
+      <c r="G239" s="280">
         <f>G236</f>
         <v>0.90500000000000003</v>
       </c>
@@ -22186,22 +22196,22 @@
       </c>
     </row>
     <row r="240" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D240" s="387" t="s">
+      <c r="D240" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="387"/>
-      <c r="F240" s="387"/>
-      <c r="G240" s="387"/>
-      <c r="H240" s="387"/>
-      <c r="I240" s="387"/>
+      <c r="E240" s="392"/>
+      <c r="F240" s="392"/>
+      <c r="G240" s="392"/>
+      <c r="H240" s="392"/>
+      <c r="I240" s="392"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D241" s="388"/>
-      <c r="E241" s="388"/>
-      <c r="F241" s="388"/>
-      <c r="G241" s="388"/>
-      <c r="H241" s="388"/>
-      <c r="I241" s="388"/>
+      <c r="D241" s="393"/>
+      <c r="E241" s="393"/>
+      <c r="F241" s="393"/>
+      <c r="G241" s="393"/>
+      <c r="H241" s="393"/>
+      <c r="I241" s="393"/>
     </row>
     <row r="297" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="298" spans="19:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22465,10 +22475,10 @@
         <f>[4]Hoja1!$N$5</f>
         <v>0.59799999999999998</v>
       </c>
-      <c r="R4" s="282" t="s">
+      <c r="R4" s="281" t="s">
         <v>258</v>
       </c>
-      <c r="S4" s="282" t="s">
+      <c r="S4" s="281" t="s">
         <v>259</v>
       </c>
     </row>
@@ -22486,14 +22496,14 @@
         <v>2011</v>
       </c>
       <c r="P5" s="211"/>
-      <c r="Q5" s="399">
+      <c r="Q5" s="347">
         <f>[4]Hoja1!$N$11</f>
         <v>0.61926999999999999</v>
       </c>
-      <c r="R5" s="282" t="s">
+      <c r="R5" s="281" t="s">
         <v>258</v>
       </c>
-      <c r="S5" s="282" t="s">
+      <c r="S5" s="281" t="s">
         <v>259</v>
       </c>
     </row>
@@ -22781,11 +22791,11 @@
       <c r="Q24" s="211"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="396" t="s">
+      <c r="O25" s="401" t="s">
         <v>240</v>
       </c>
-      <c r="P25" s="396"/>
-      <c r="Q25" s="396"/>
+      <c r="P25" s="401"/>
+      <c r="Q25" s="401"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
@@ -22794,9 +22804,9 @@
       <c r="F26" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="O26" s="397"/>
-      <c r="P26" s="397"/>
-      <c r="Q26" s="397"/>
+      <c r="O26" s="402"/>
+      <c r="P26" s="402"/>
+      <c r="Q26" s="402"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
@@ -22823,9 +22833,9 @@
       <c r="J27" s="166" t="s">
         <v>223</v>
       </c>
-      <c r="O27" s="397"/>
-      <c r="P27" s="397"/>
-      <c r="Q27" s="397"/>
+      <c r="O27" s="402"/>
+      <c r="P27" s="402"/>
+      <c r="Q27" s="402"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="43" t="s">
@@ -23035,84 +23045,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="320" t="s">
+      <c r="B1" s="319" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="320"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="319"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="321" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="320"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="319"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="320"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="319"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="322" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="369" t="s">
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="326"/>
+      <c r="J4" s="403" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="328" t="s">
+      <c r="B5" s="327" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="327" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="328" t="s">
+      <c r="D5" s="327" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="329" t="s">
+      <c r="E5" s="328" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="328" t="s">
+      <c r="F5" s="327" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="330" t="s">
+      <c r="G5" s="329" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="331"/>
-      <c r="I5" s="332" t="s">
+      <c r="H5" s="330"/>
+      <c r="I5" s="331" t="s">
         <v>265</v>
       </c>
-      <c r="J5" s="369"/>
+      <c r="J5" s="403"/>
     </row>
     <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="333" t="s">
+      <c r="B6" s="332" t="s">
         <v>266</v>
       </c>
       <c r="C6" s="72" t="s">
@@ -23130,207 +23140,207 @@
       <c r="G6" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="334"/>
-      <c r="I6" s="335"/>
-      <c r="J6" s="336" t="s">
+      <c r="H6" s="333"/>
+      <c r="I6" s="334"/>
+      <c r="J6" s="335" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="337">
+      <c r="B7" s="336">
         <v>2010</v>
       </c>
-      <c r="C7" s="337">
+      <c r="C7" s="336">
         <v>120</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="336" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="337" t="s">
+      <c r="E7" s="336" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="337" t="s">
+      <c r="F7" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="338">
+      <c r="G7" s="337">
         <v>25000</v>
       </c>
       <c r="H7" s="80">
         <f t="shared" ref="H7:H12" si="0">VLOOKUP(I7,Tabla_mes,2,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="I7" s="338" t="s">
+      <c r="I7" s="337" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="339">
+      <c r="J7" s="338">
         <f>(Variables!G15-Variables!G12)/(1-Factores!$C$4)*1/1000*Factores!$Q$4*G7*H7/12</f>
         <v>1992.8421746651782</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="337">
+      <c r="B8" s="336">
         <v>2010</v>
       </c>
-      <c r="C8" s="337">
+      <c r="C8" s="336">
         <v>120</v>
       </c>
-      <c r="D8" s="337" t="s">
+      <c r="D8" s="336" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="337" t="s">
+      <c r="E8" s="336" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="337" t="s">
+      <c r="F8" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="338">
+      <c r="G8" s="337">
         <v>25000</v>
       </c>
       <c r="H8" s="80">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I8" s="338" t="s">
+      <c r="I8" s="337" t="s">
         <v>276</v>
       </c>
-      <c r="J8" s="339">
+      <c r="J8" s="338">
         <f>(Variables!G17-Variables!G12)/(1-Factores!$C$4)*1/1000*Factores!$Q$4*G8*H8/12</f>
         <v>1153.750732700893</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="337">
+      <c r="B9" s="336">
         <v>2011</v>
       </c>
-      <c r="C9" s="337">
+      <c r="C9" s="336">
         <v>225</v>
       </c>
-      <c r="D9" s="337" t="s">
+      <c r="D9" s="336" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="337" t="s">
+      <c r="E9" s="336" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="337" t="s">
+      <c r="F9" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="338">
+      <c r="G9" s="337">
         <v>25000</v>
       </c>
       <c r="H9" s="80">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I9" s="338" t="s">
+      <c r="I9" s="337" t="s">
         <v>271</v>
       </c>
-      <c r="J9" s="339">
+      <c r="J9" s="338">
         <f>(Variables!G23-Variables!G19)/(1-Factores!$C$5)*1/1000*Factores!$Q$5*G9*H9/12</f>
         <v>3349.1361412789624</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="337">
+      <c r="B10" s="336">
         <v>2011</v>
       </c>
-      <c r="C10" s="337">
+      <c r="C10" s="336">
         <v>375</v>
       </c>
-      <c r="D10" s="337" t="s">
+      <c r="D10" s="336" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="337" t="s">
+      <c r="E10" s="336" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="337" t="s">
+      <c r="F10" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="338">
+      <c r="G10" s="337">
         <v>25000</v>
       </c>
       <c r="H10" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10" s="338" t="s">
+      <c r="I10" s="337" t="s">
         <v>274</v>
       </c>
-      <c r="J10" s="339">
+      <c r="J10" s="338">
         <f>(Variables!G28-Variables!G26)/(1-Factores!$C$5)*1/1000*Factores!$Q$5*G10*H10/12</f>
         <v>912.98066633968574</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="337">
+      <c r="B11" s="336">
         <v>2012</v>
       </c>
-      <c r="C11" s="337">
+      <c r="C11" s="336">
         <v>480</v>
       </c>
-      <c r="D11" s="337" t="s">
+      <c r="D11" s="336" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="337" t="s">
+      <c r="E11" s="336" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="337" t="s">
+      <c r="F11" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="338">
+      <c r="G11" s="337">
         <v>25000</v>
       </c>
       <c r="H11" s="80">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I11" s="338" t="s">
+      <c r="I11" s="337" t="s">
         <v>270</v>
       </c>
-      <c r="J11" s="339">
+      <c r="J11" s="338">
         <f>(Variables!G36-Variables!G33)/(1-Factores!$C$6)*1/1000*Factores!$Q$6*G11*H11/12</f>
         <v>3493.9463599794235</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="337">
+      <c r="B12" s="336">
         <v>2013</v>
       </c>
-      <c r="C12" s="337">
+      <c r="C12" s="336">
         <v>225</v>
       </c>
-      <c r="D12" s="337" t="s">
+      <c r="D12" s="336" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="337" t="s">
+      <c r="E12" s="336" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="337" t="s">
+      <c r="F12" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="338">
+      <c r="G12" s="337">
         <v>25000</v>
       </c>
       <c r="H12" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I12" s="338" t="s">
+      <c r="I12" s="337" t="s">
         <v>274</v>
       </c>
-      <c r="J12" s="339">
+      <c r="J12" s="338">
         <f>(Variables!Y22-Variables!Y19)/(1-Factores!$C$7)*1/1000*Factores!$Q$7*G12*H12/12</f>
         <v>1963.7889507166576</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="341"/>
-      <c r="F13" s="342"/>
-      <c r="G13" s="343"/>
-      <c r="H13" s="343"/>
-      <c r="I13" s="343"/>
-      <c r="J13" s="344">
+      <c r="B13" s="339"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="342"/>
+      <c r="H13" s="342"/>
+      <c r="I13" s="342"/>
+      <c r="J13" s="343">
         <f>SUM(J7:J12)</f>
         <v>12866.445025680801</v>
       </c>
